--- a/InputData/trans/SYFAFE/Start Year Fleet Avg Fuel Economy.xlsx
+++ b/InputData/trans/SYFAFE/Start Year Fleet Avg Fuel Economy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabian.hein\Desktop\EPS_new\transport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mary Francis Swint\Vensim\eps-eu\InputData\trans\SYFAFE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E773A56A-0728-4E8F-BD03-F1B79D3BD935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37F781F-A5C0-4D19-893F-DECA34703388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="742" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="742" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -626,18 +626,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="12">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
-    <numFmt numFmtId="167" formatCode="#,##0.0"/>
-    <numFmt numFmtId="168" formatCode="###0.00_)"/>
-    <numFmt numFmtId="169" formatCode="#,##0_)"/>
-    <numFmt numFmtId="170" formatCode="#,##0.0;\-#,##0.0;&quot;-&quot;"/>
-    <numFmt numFmtId="171" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
-    <numFmt numFmtId="172" formatCode="#,##0.00;\-#,##0.00;&quot;-&quot;"/>
-    <numFmt numFmtId="173" formatCode="0.0"/>
-    <numFmt numFmtId="175" formatCode="0.000"/>
-    <numFmt numFmtId="176" formatCode="#,##0.000000000_);\(#,##0.000000000\)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="###0.00_)"/>
+    <numFmt numFmtId="167" formatCode="#,##0_)"/>
+    <numFmt numFmtId="168" formatCode="#,##0.0;\-#,##0.0;&quot;-&quot;"/>
+    <numFmt numFmtId="169" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
+    <numFmt numFmtId="170" formatCode="#,##0.00;\-#,##0.00;&quot;-&quot;"/>
+    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="172" formatCode="0.000"/>
+    <numFmt numFmtId="173" formatCode="#,##0.000000000_);\(#,##0.000000000\)"/>
   </numFmts>
   <fonts count="58">
     <font>
@@ -1626,33 +1626,33 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="16" fillId="0" borderId="8">
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="8">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="8">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1784,7 +1784,7 @@
     <xf numFmtId="49" fontId="17" fillId="0" borderId="8">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="16" fillId="0" borderId="0" applyNumberFormat="0">
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" applyNumberFormat="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="27" borderId="0">
@@ -1833,7 +1833,7 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1849,7 +1849,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="153"/>
     <xf numFmtId="0" fontId="42" fillId="29" borderId="19" xfId="154" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1869,49 +1869,49 @@
     <xf numFmtId="0" fontId="45" fillId="31" borderId="19" xfId="154" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="168" fontId="46" fillId="31" borderId="19" xfId="154" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="32" borderId="19" xfId="154" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="47" fillId="32" borderId="19" xfId="154" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="30" borderId="21" xfId="154" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="30" borderId="22" xfId="154" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="30" borderId="0" xfId="154" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="168" fontId="44" fillId="0" borderId="0" xfId="154" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="44" fillId="0" borderId="13" xfId="154" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="154" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="47" fillId="32" borderId="19" xfId="154" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="170" fontId="46" fillId="31" borderId="19" xfId="154" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="32" borderId="19" xfId="154" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="170" fontId="47" fillId="32" borderId="19" xfId="154" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="30" borderId="21" xfId="154" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="30" borderId="22" xfId="154" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="30" borderId="0" xfId="154" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
     <xf numFmtId="170" fontId="44" fillId="0" borderId="0" xfId="154" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="170" fontId="44" fillId="0" borderId="13" xfId="154" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="154" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="47" fillId="32" borderId="19" xfId="154" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="46" fillId="31" borderId="19" xfId="154" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="47" fillId="32" borderId="19" xfId="154" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="44" fillId="0" borderId="0" xfId="154" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="44" fillId="0" borderId="13" xfId="154" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="47" fillId="32" borderId="19" xfId="154" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="47" fillId="32" borderId="19" xfId="154" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="30" borderId="0" xfId="154" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1938,19 +1938,19 @@
     <xf numFmtId="0" fontId="47" fillId="32" borderId="21" xfId="154" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="171" fontId="47" fillId="32" borderId="21" xfId="154" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="47" fillId="32" borderId="21" xfId="154" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="32" borderId="22" xfId="154" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="171" fontId="47" fillId="32" borderId="22" xfId="154" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="47" fillId="32" borderId="22" xfId="154" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="47" fillId="32" borderId="21" xfId="154" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="47" fillId="32" borderId="21" xfId="154" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="47" fillId="32" borderId="22" xfId="154" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="47" fillId="32" borderId="22" xfId="154" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="30" borderId="0" xfId="154" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1965,7 +1965,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1974,7 +1974,7 @@
     <xf numFmtId="0" fontId="44" fillId="33" borderId="0" xfId="154" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="170" fontId="44" fillId="33" borderId="0" xfId="154" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="44" fillId="33" borderId="0" xfId="154" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2000,19 +2000,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2058,70 +2058,70 @@
     <xf numFmtId="1" fontId="51" fillId="29" borderId="31" xfId="154" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="52" fillId="0" borderId="32" xfId="154" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="52" fillId="0" borderId="32" xfId="154" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="30" borderId="0" xfId="154" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="46" fillId="31" borderId="19" xfId="154" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="46" fillId="31" borderId="19" xfId="154" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="30" borderId="19" xfId="154" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="167" fontId="53" fillId="0" borderId="19" xfId="154" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="53" fillId="0" borderId="19" xfId="154" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="30" borderId="20" xfId="154" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="167" fontId="53" fillId="0" borderId="20" xfId="154" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="53" fillId="0" borderId="20" xfId="154" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="30" borderId="0" xfId="154" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="167" fontId="53" fillId="0" borderId="0" xfId="154" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="53" fillId="0" borderId="0" xfId="154" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="30" borderId="13" xfId="154" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="167" fontId="53" fillId="0" borderId="13" xfId="154" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="53" fillId="0" borderId="13" xfId="154" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="52" fillId="0" borderId="0" xfId="154" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="52" fillId="0" borderId="0" xfId="154" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="53" fillId="30" borderId="0" xfId="154" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="53" fillId="30" borderId="0" xfId="154" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="52" fillId="34" borderId="19" xfId="154" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="52" fillId="34" borderId="19" xfId="154" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="53" fillId="34" borderId="19" xfId="154" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="53" fillId="34" borderId="19" xfId="154" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="45" fillId="31" borderId="19" xfId="154" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="45" fillId="31" borderId="19" xfId="154" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="31" borderId="19" xfId="154" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="167" fontId="54" fillId="31" borderId="19" xfId="154" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="54" fillId="31" borderId="19" xfId="154" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="31" borderId="19" xfId="154" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="167" fontId="51" fillId="31" borderId="19" xfId="154" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="51" fillId="31" borderId="19" xfId="154" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="32" borderId="19" xfId="154" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="167" fontId="53" fillId="32" borderId="19" xfId="154" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="53" fillId="32" borderId="19" xfId="154" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="30" borderId="0" xfId="154" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2133,7 +2133,7 @@
     <xf numFmtId="0" fontId="53" fillId="34" borderId="0" xfId="154" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="53" fillId="34" borderId="0" xfId="154" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="53" fillId="34" borderId="0" xfId="154" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="32" borderId="19" xfId="154" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2148,32 +2148,32 @@
     <xf numFmtId="0" fontId="53" fillId="32" borderId="19" xfId="154" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="167" fontId="51" fillId="0" borderId="19" xfId="154" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="51" fillId="0" borderId="19" xfId="154" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="44" fillId="0" borderId="22" xfId="154" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="44" fillId="0" borderId="21" xfId="154" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="44" fillId="0" borderId="20" xfId="154" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="170" fontId="44" fillId="0" borderId="22" xfId="154" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="170" fontId="44" fillId="0" borderId="21" xfId="154" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="44" fillId="0" borderId="20" xfId="154" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="54" fillId="32" borderId="19" xfId="154" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="44" fillId="0" borderId="22" xfId="154" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="44" fillId="0" borderId="0" xfId="154" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="44" fillId="0" borderId="21" xfId="154" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="54" fillId="32" borderId="19" xfId="154" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="44" fillId="0" borderId="0" xfId="154" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="44" fillId="0" borderId="13" xfId="154" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="44" fillId="0" borderId="13" xfId="154" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="154" applyFont="1" applyAlignment="1">
@@ -2182,23 +2182,23 @@
     <xf numFmtId="11" fontId="0" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="45" fillId="35" borderId="19" xfId="154" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="47" fillId="36" borderId="19" xfId="154" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="53" fillId="0" borderId="19" xfId="154" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="53" fillId="0" borderId="19" xfId="154" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="53" fillId="0" borderId="20" xfId="154" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="53" fillId="0" borderId="20" xfId="154" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="53" fillId="0" borderId="0" xfId="154" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="53" fillId="0" borderId="0" xfId="154" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="53" fillId="0" borderId="13" xfId="154" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="53" fillId="0" borderId="13" xfId="154" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="54" fillId="35" borderId="19" xfId="154" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2225,14 +2225,10 @@
     <xf numFmtId="4" fontId="53" fillId="39" borderId="0" xfId="154" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="172" fontId="46" fillId="35" borderId="19" xfId="154" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="46" fillId="35" borderId="19" xfId="154" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="155" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2788,12 +2784,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="139.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" customWidth="1"/>
+    <col min="2" max="2" width="139.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2857,7 +2853,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" ht="120">
+    <row r="14" spans="1:5" ht="87">
       <c r="B14" s="47" t="s">
         <v>10</v>
       </c>
@@ -2890,7 +2886,7 @@
       </c>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" ht="60">
+    <row r="20" spans="1:5" ht="43.5">
       <c r="B20" s="47" t="s">
         <v>14</v>
       </c>
@@ -3030,13 +3026,13 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="8" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.26953125" customWidth="1"/>
+    <col min="2" max="2" width="21.81640625" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" customWidth="1"/>
+    <col min="4" max="5" width="16.7265625" customWidth="1"/>
+    <col min="6" max="8" width="20.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -3506,12 +3502,12 @@
       <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1">
+    <row r="1" spans="1:4" ht="15" thickBot="1">
       <c r="A1" s="86" t="s">
         <v>179</v>
       </c>
@@ -7027,13 +7023,13 @@
       <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="44.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="9.140625" style="145"/>
+    <col min="1" max="1" width="44.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.1796875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1">
+    <row r="1" spans="1:4" ht="15" thickBot="1">
       <c r="A1" s="86" t="s">
         <v>174</v>
       </c>
@@ -10568,20 +10564,20 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="40.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.54296875" customWidth="1"/>
+    <col min="2" max="2" width="13.7265625" customWidth="1"/>
+    <col min="3" max="3" width="23.81640625" customWidth="1"/>
+    <col min="4" max="4" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="42.7109375" customWidth="1"/>
+    <col min="7" max="7" width="42.7265625" customWidth="1"/>
     <col min="8" max="8" width="33" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.54296875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21" customWidth="1"/>
-    <col min="11" max="11" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -10864,7 +10860,7 @@
       </c>
       <c r="I13" s="60"/>
     </row>
-    <row r="14" spans="1:10" ht="45">
+    <row r="14" spans="1:10" ht="43.5">
       <c r="A14" s="21" t="s">
         <v>39</v>
       </c>
@@ -11491,7 +11487,7 @@
       <c r="A45" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="B45" s="146">
+      <c r="B45" s="145">
         <f>TRA_Energy!B5+TRA_Energy!B18</f>
         <v>262489.50487439765</v>
       </c>
@@ -11937,14 +11933,14 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
-    <col min="7" max="7" width="41.85546875" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="38.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.26953125" customWidth="1"/>
+    <col min="7" max="7" width="41.81640625" customWidth="1"/>
+    <col min="8" max="8" width="18.54296875" customWidth="1"/>
+    <col min="9" max="9" width="21.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -12020,11 +12016,11 @@
         <f t="shared" ref="C5:C6" si="1">B5/$G$9</f>
         <v>41853.554682037422</v>
       </c>
-      <c r="D5" s="148">
+      <c r="D5" s="50">
         <f t="shared" ref="D5:D6" si="2">C5*1000000</f>
         <v>41853554682.037422</v>
       </c>
-      <c r="E5" s="148">
+      <c r="E5" s="50">
         <f t="shared" si="0"/>
         <v>9.3028717889103905E-4</v>
       </c>
@@ -12203,7 +12199,7 @@
         <f>TRA_Energy!B184</f>
         <v>1133.7302175395382</v>
       </c>
-      <c r="C15" s="148">
+      <c r="C15" s="50">
         <f t="shared" si="3"/>
         <v>44989929595643.25</v>
       </c>
@@ -12286,14 +12282,14 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="31.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.81640625" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.5703125" customWidth="1"/>
-    <col min="8" max="9" width="19.5703125" customWidth="1"/>
+    <col min="7" max="7" width="42.54296875" customWidth="1"/>
+    <col min="8" max="9" width="19.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -12645,16 +12641,16 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="42" customWidth="1"/>
-    <col min="8" max="9" width="19.42578125" customWidth="1"/>
+    <col min="8" max="9" width="19.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -12813,20 +12809,20 @@
         <v>144</v>
       </c>
       <c r="B8" s="23">
-        <f>SUM(B4:B7)</f>
-        <v>14835344.878839018</v>
+        <f>SUM(B4:B5)</f>
+        <v>299463.4530357066</v>
       </c>
       <c r="C8" s="50">
         <f t="shared" si="1"/>
-        <v>9218255.9346162267</v>
+        <v>186077.96284430588</v>
       </c>
       <c r="D8" s="50">
         <f t="shared" si="2"/>
-        <v>9218255934616.2266</v>
+        <v>186077962844.30588</v>
       </c>
       <c r="E8" s="50">
         <f t="shared" ref="E8" si="4">D8/C18</f>
-        <v>5.0291774003315181E-3</v>
+        <v>1.1145989755906977E-3</v>
       </c>
       <c r="G8" s="80"/>
       <c r="I8" s="81"/>
@@ -12946,12 +12942,12 @@
         <v>144</v>
       </c>
       <c r="B18" s="130">
-        <f>SUM(B14:B17)</f>
-        <v>46189.814164565061</v>
+        <f>SUM(B14:B15)</f>
+        <v>4206.9825617068127</v>
       </c>
       <c r="C18" s="50">
         <f t="shared" si="6"/>
-        <v>1832955014473851.8</v>
+        <v>166946109694467.63</v>
       </c>
     </row>
   </sheetData>
@@ -12970,17 +12966,17 @@
       <selection activeCell="H29" sqref="A9:H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="8" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.453125" customWidth="1"/>
+    <col min="2" max="2" width="21.81640625" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="16.7265625" customWidth="1"/>
+    <col min="6" max="8" width="20.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30">
+    <row r="1" spans="1:8" ht="29">
       <c r="A1" s="5" t="s">
         <v>104</v>
       </c>
@@ -13234,58 +13230,58 @@
       <c r="H17" s="73"/>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24" s="147"/>
-      <c r="C24" s="147"/>
-      <c r="D24" s="147"/>
-      <c r="E24" s="147"/>
-      <c r="F24" s="147"/>
-      <c r="G24" s="147"/>
-      <c r="H24" s="147"/>
+      <c r="B24" s="146"/>
+      <c r="C24" s="146"/>
+      <c r="D24" s="146"/>
+      <c r="E24" s="146"/>
+      <c r="F24" s="146"/>
+      <c r="G24" s="146"/>
+      <c r="H24" s="146"/>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="147"/>
-      <c r="C25" s="147"/>
-      <c r="D25" s="147"/>
-      <c r="E25" s="147"/>
-      <c r="F25" s="147"/>
-      <c r="G25" s="147"/>
-      <c r="H25" s="147"/>
+      <c r="B25" s="146"/>
+      <c r="C25" s="146"/>
+      <c r="D25" s="146"/>
+      <c r="E25" s="146"/>
+      <c r="F25" s="146"/>
+      <c r="G25" s="146"/>
+      <c r="H25" s="146"/>
     </row>
     <row r="26" spans="2:8">
-      <c r="B26" s="147"/>
-      <c r="C26" s="147"/>
-      <c r="D26" s="147"/>
-      <c r="E26" s="147"/>
-      <c r="F26" s="147"/>
-      <c r="G26" s="147"/>
-      <c r="H26" s="147"/>
+      <c r="B26" s="146"/>
+      <c r="C26" s="146"/>
+      <c r="D26" s="146"/>
+      <c r="E26" s="146"/>
+      <c r="F26" s="146"/>
+      <c r="G26" s="146"/>
+      <c r="H26" s="146"/>
     </row>
     <row r="27" spans="2:8">
-      <c r="B27" s="147"/>
-      <c r="C27" s="147"/>
-      <c r="D27" s="147"/>
-      <c r="E27" s="147"/>
-      <c r="F27" s="147"/>
-      <c r="G27" s="147"/>
-      <c r="H27" s="147"/>
+      <c r="B27" s="146"/>
+      <c r="C27" s="146"/>
+      <c r="D27" s="146"/>
+      <c r="E27" s="146"/>
+      <c r="F27" s="146"/>
+      <c r="G27" s="146"/>
+      <c r="H27" s="146"/>
     </row>
     <row r="28" spans="2:8">
-      <c r="B28" s="147"/>
-      <c r="C28" s="147"/>
-      <c r="D28" s="147"/>
-      <c r="E28" s="147"/>
-      <c r="F28" s="147"/>
-      <c r="G28" s="147"/>
-      <c r="H28" s="147"/>
+      <c r="B28" s="146"/>
+      <c r="C28" s="146"/>
+      <c r="D28" s="146"/>
+      <c r="E28" s="146"/>
+      <c r="F28" s="146"/>
+      <c r="G28" s="146"/>
+      <c r="H28" s="146"/>
     </row>
     <row r="29" spans="2:8">
-      <c r="B29" s="147"/>
-      <c r="C29" s="147"/>
-      <c r="D29" s="147"/>
-      <c r="E29" s="147"/>
-      <c r="F29" s="147"/>
-      <c r="G29" s="147"/>
-      <c r="H29" s="147"/>
+      <c r="B29" s="146"/>
+      <c r="C29" s="146"/>
+      <c r="D29" s="146"/>
+      <c r="E29" s="146"/>
+      <c r="F29" s="146"/>
+      <c r="G29" s="146"/>
+      <c r="H29" s="146"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13299,20 +13295,20 @@
   </sheetPr>
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="8" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.453125" customWidth="1"/>
+    <col min="2" max="2" width="21.81640625" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" customWidth="1"/>
+    <col min="4" max="5" width="16.7265625" customWidth="1"/>
+    <col min="6" max="8" width="20.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30">
+    <row r="1" spans="1:8" ht="29">
       <c r="A1" s="5" t="s">
         <v>105</v>
       </c>
@@ -13472,7 +13468,7 @@
       </c>
       <c r="E6" s="73">
         <f>'Ships Calculations'!E8</f>
-        <v>5.0291774003315181E-3</v>
+        <v>1.1145989755906977E-3</v>
       </c>
       <c r="F6" s="73">
         <v>0</v>
@@ -13514,174 +13510,174 @@
       <c r="E9" s="73"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="149"/>
-      <c r="B11" s="150"/>
-      <c r="C11" s="150"/>
-      <c r="D11" s="150"/>
-      <c r="E11" s="150"/>
-      <c r="F11" s="150"/>
-      <c r="G11" s="150"/>
-      <c r="H11" s="150"/>
+      <c r="A11" s="147"/>
+      <c r="B11" s="148"/>
+      <c r="C11" s="148"/>
+      <c r="D11" s="148"/>
+      <c r="E11" s="148"/>
+      <c r="F11" s="148"/>
+      <c r="G11" s="148"/>
+      <c r="H11" s="148"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="151"/>
-      <c r="B12" s="152"/>
-      <c r="C12" s="152"/>
-      <c r="D12" s="152"/>
-      <c r="E12" s="152"/>
-      <c r="F12" s="152"/>
-      <c r="G12" s="152"/>
-      <c r="H12" s="152"/>
+      <c r="A12" s="149"/>
+      <c r="B12" s="150"/>
+      <c r="C12" s="150"/>
+      <c r="D12" s="150"/>
+      <c r="E12" s="150"/>
+      <c r="F12" s="150"/>
+      <c r="G12" s="150"/>
+      <c r="H12" s="150"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="151"/>
-      <c r="B13" s="152"/>
-      <c r="C13" s="152"/>
-      <c r="D13" s="152"/>
-      <c r="E13" s="152"/>
-      <c r="F13" s="152"/>
-      <c r="G13" s="152"/>
-      <c r="H13" s="152"/>
+      <c r="A13" s="149"/>
+      <c r="B13" s="150"/>
+      <c r="C13" s="150"/>
+      <c r="D13" s="150"/>
+      <c r="E13" s="150"/>
+      <c r="F13" s="150"/>
+      <c r="G13" s="150"/>
+      <c r="H13" s="150"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="151"/>
-      <c r="B14" s="152"/>
-      <c r="C14" s="152"/>
-      <c r="D14" s="152"/>
-      <c r="E14" s="152"/>
-      <c r="F14" s="152"/>
-      <c r="G14" s="152"/>
-      <c r="H14" s="152"/>
+      <c r="A14" s="149"/>
+      <c r="B14" s="150"/>
+      <c r="C14" s="150"/>
+      <c r="D14" s="150"/>
+      <c r="E14" s="150"/>
+      <c r="F14" s="150"/>
+      <c r="G14" s="150"/>
+      <c r="H14" s="150"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="151"/>
-      <c r="B15" s="152"/>
-      <c r="C15" s="152"/>
-      <c r="D15" s="152"/>
-      <c r="E15" s="152"/>
-      <c r="F15" s="152"/>
-      <c r="G15" s="152"/>
-      <c r="H15" s="152"/>
+      <c r="A15" s="149"/>
+      <c r="B15" s="150"/>
+      <c r="C15" s="150"/>
+      <c r="D15" s="150"/>
+      <c r="E15" s="150"/>
+      <c r="F15" s="150"/>
+      <c r="G15" s="150"/>
+      <c r="H15" s="150"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="151"/>
-      <c r="B16" s="152"/>
-      <c r="C16" s="152"/>
-      <c r="D16" s="152"/>
-      <c r="E16" s="152"/>
-      <c r="F16" s="152"/>
-      <c r="G16" s="152"/>
-      <c r="H16" s="152"/>
+      <c r="A16" s="149"/>
+      <c r="B16" s="150"/>
+      <c r="C16" s="150"/>
+      <c r="D16" s="150"/>
+      <c r="E16" s="150"/>
+      <c r="F16" s="150"/>
+      <c r="G16" s="150"/>
+      <c r="H16" s="150"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="151"/>
-      <c r="B17" s="152"/>
-      <c r="C17" s="152"/>
-      <c r="D17" s="152"/>
-      <c r="E17" s="152"/>
-      <c r="F17" s="152"/>
-      <c r="G17" s="152"/>
-      <c r="H17" s="152"/>
+      <c r="A17" s="149"/>
+      <c r="B17" s="150"/>
+      <c r="C17" s="150"/>
+      <c r="D17" s="150"/>
+      <c r="E17" s="150"/>
+      <c r="F17" s="150"/>
+      <c r="G17" s="150"/>
+      <c r="H17" s="150"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="147"/>
-      <c r="B20" s="147"/>
-      <c r="C20" s="147"/>
-      <c r="D20" s="147"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
+      <c r="A20" s="146"/>
+      <c r="B20" s="146"/>
+      <c r="C20" s="146"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="146"/>
+      <c r="G20" s="146"/>
+      <c r="H20" s="146"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="147"/>
-      <c r="B21" s="147"/>
-      <c r="C21" s="147"/>
-      <c r="D21" s="147"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
+      <c r="A21" s="146"/>
+      <c r="B21" s="146"/>
+      <c r="C21" s="146"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="146"/>
+      <c r="G21" s="146"/>
+      <c r="H21" s="146"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="147"/>
-      <c r="B22" s="147"/>
-      <c r="C22" s="147"/>
-      <c r="D22" s="147"/>
-      <c r="E22" s="147"/>
-      <c r="F22" s="147"/>
-      <c r="G22" s="147"/>
-      <c r="H22" s="147"/>
+      <c r="A22" s="146"/>
+      <c r="B22" s="146"/>
+      <c r="C22" s="146"/>
+      <c r="D22" s="146"/>
+      <c r="E22" s="146"/>
+      <c r="F22" s="146"/>
+      <c r="G22" s="146"/>
+      <c r="H22" s="146"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="147"/>
-      <c r="B23" s="147"/>
-      <c r="C23" s="147"/>
-      <c r="D23" s="147"/>
-      <c r="E23" s="147"/>
-      <c r="F23" s="147"/>
-      <c r="G23" s="147"/>
-      <c r="H23" s="147"/>
+      <c r="A23" s="146"/>
+      <c r="B23" s="146"/>
+      <c r="C23" s="146"/>
+      <c r="D23" s="146"/>
+      <c r="E23" s="146"/>
+      <c r="F23" s="146"/>
+      <c r="G23" s="146"/>
+      <c r="H23" s="146"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="147"/>
-      <c r="B24" s="147"/>
-      <c r="C24" s="147"/>
-      <c r="D24" s="147"/>
-      <c r="E24" s="147"/>
-      <c r="F24" s="147"/>
-      <c r="G24" s="147"/>
-      <c r="H24" s="147"/>
+      <c r="A24" s="146"/>
+      <c r="B24" s="146"/>
+      <c r="C24" s="146"/>
+      <c r="D24" s="146"/>
+      <c r="E24" s="146"/>
+      <c r="F24" s="146"/>
+      <c r="G24" s="146"/>
+      <c r="H24" s="146"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="147"/>
-      <c r="B25" s="147"/>
-      <c r="C25" s="147"/>
-      <c r="D25" s="147"/>
-      <c r="E25" s="147"/>
-      <c r="F25" s="147"/>
-      <c r="G25" s="147"/>
-      <c r="H25" s="147"/>
+      <c r="A25" s="146"/>
+      <c r="B25" s="146"/>
+      <c r="C25" s="146"/>
+      <c r="D25" s="146"/>
+      <c r="E25" s="146"/>
+      <c r="F25" s="146"/>
+      <c r="G25" s="146"/>
+      <c r="H25" s="146"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="147"/>
-      <c r="B26" s="147"/>
-      <c r="C26" s="147"/>
-      <c r="D26" s="147"/>
-      <c r="E26" s="147"/>
-      <c r="F26" s="147"/>
-      <c r="G26" s="147"/>
-      <c r="H26" s="147"/>
+      <c r="A26" s="146"/>
+      <c r="B26" s="146"/>
+      <c r="C26" s="146"/>
+      <c r="D26" s="146"/>
+      <c r="E26" s="146"/>
+      <c r="F26" s="146"/>
+      <c r="G26" s="146"/>
+      <c r="H26" s="146"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="147"/>
-      <c r="B27" s="147"/>
-      <c r="C27" s="147"/>
-      <c r="D27" s="147"/>
-      <c r="E27" s="147"/>
-      <c r="F27" s="147"/>
-      <c r="G27" s="147"/>
-      <c r="H27" s="147"/>
+      <c r="A27" s="146"/>
+      <c r="B27" s="146"/>
+      <c r="C27" s="146"/>
+      <c r="D27" s="146"/>
+      <c r="E27" s="146"/>
+      <c r="F27" s="146"/>
+      <c r="G27" s="146"/>
+      <c r="H27" s="146"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="147"/>
-      <c r="B28" s="147"/>
-      <c r="C28" s="147"/>
-      <c r="D28" s="147"/>
-      <c r="E28" s="147"/>
-      <c r="F28" s="147"/>
-      <c r="G28" s="147"/>
-      <c r="H28" s="147"/>
+      <c r="A28" s="146"/>
+      <c r="B28" s="146"/>
+      <c r="C28" s="146"/>
+      <c r="D28" s="146"/>
+      <c r="E28" s="146"/>
+      <c r="F28" s="146"/>
+      <c r="G28" s="146"/>
+      <c r="H28" s="146"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="147"/>
-      <c r="B29" s="147"/>
-      <c r="C29" s="147"/>
-      <c r="D29" s="147"/>
-      <c r="E29" s="147"/>
-      <c r="F29" s="147"/>
-      <c r="G29" s="147"/>
-      <c r="H29" s="147"/>
+      <c r="A29" s="146"/>
+      <c r="B29" s="146"/>
+      <c r="C29" s="146"/>
+      <c r="D29" s="146"/>
+      <c r="E29" s="146"/>
+      <c r="F29" s="146"/>
+      <c r="G29" s="146"/>
+      <c r="H29" s="146"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13690,6 +13686,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
@@ -13698,15 +13703,6 @@
     <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13939,6 +13935,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF912DF3-EA4C-4211-B7E9-EA25E2A94769}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D632F66-03C4-44FF-9808-B31E7AA18D4B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -13949,14 +13953,21 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF912DF3-EA4C-4211-B7E9-EA25E2A94769}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE28452B-5587-40CC-A9EE-4AAF8A3A964E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE28452B-5587-40CC-A9EE-4AAF8A3A964E}"/>
 </file>
--- a/InputData/trans/SYFAFE/Start Year Fleet Avg Fuel Economy.xlsx
+++ b/InputData/trans/SYFAFE/Start Year Fleet Avg Fuel Economy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mary Francis Swint\Vensim\eps-eu\InputData\trans\SYFAFE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37F781F-A5C0-4D19-893F-DECA34703388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91CDC78-59A8-4164-BC5C-52DC15BA480E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="742" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="742" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -2786,10 +2786,10 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.453125" customWidth="1"/>
-    <col min="2" max="2" width="139.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="139.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2853,7 +2853,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" ht="87">
+    <row r="14" spans="1:5" ht="120">
       <c r="B14" s="47" t="s">
         <v>10</v>
       </c>
@@ -2886,7 +2886,7 @@
       </c>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" ht="43.5">
+    <row r="20" spans="1:5" ht="60">
       <c r="B20" s="47" t="s">
         <v>14</v>
       </c>
@@ -3026,13 +3026,13 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.26953125" customWidth="1"/>
-    <col min="2" max="2" width="21.81640625" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" customWidth="1"/>
-    <col min="4" max="5" width="16.7265625" customWidth="1"/>
-    <col min="6" max="8" width="20.54296875" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="8" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -3502,12 +3502,12 @@
       <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="44.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1">
       <c r="A1" s="86" t="s">
         <v>179</v>
       </c>
@@ -7023,13 +7023,12 @@
       <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="44.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="9.1796875"/>
+    <col min="1" max="1" width="44.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1">
       <c r="A1" s="86" t="s">
         <v>174</v>
       </c>
@@ -10564,20 +10563,20 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="40.54296875" customWidth="1"/>
-    <col min="2" max="2" width="13.7265625" customWidth="1"/>
-    <col min="3" max="3" width="23.81640625" customWidth="1"/>
-    <col min="4" max="4" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="42.7265625" customWidth="1"/>
+    <col min="7" max="7" width="42.7109375" customWidth="1"/>
     <col min="8" max="8" width="33" customWidth="1"/>
-    <col min="9" max="9" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21" customWidth="1"/>
-    <col min="11" max="11" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -10860,7 +10859,7 @@
       </c>
       <c r="I13" s="60"/>
     </row>
-    <row r="14" spans="1:10" ht="43.5">
+    <row r="14" spans="1:10" ht="45">
       <c r="A14" s="21" t="s">
         <v>39</v>
       </c>
@@ -11933,14 +11932,14 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="38.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.26953125" customWidth="1"/>
-    <col min="7" max="7" width="41.81640625" customWidth="1"/>
-    <col min="8" max="8" width="18.54296875" customWidth="1"/>
-    <col min="9" max="9" width="21.453125" customWidth="1"/>
+    <col min="1" max="1" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="7" max="7" width="41.85546875" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -12279,17 +12278,17 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.81640625" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.54296875" customWidth="1"/>
-    <col min="8" max="9" width="19.54296875" customWidth="1"/>
+    <col min="7" max="7" width="42.5703125" customWidth="1"/>
+    <col min="8" max="9" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -12644,13 +12643,13 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="42" customWidth="1"/>
-    <col min="8" max="9" width="19.453125" customWidth="1"/>
+    <col min="8" max="9" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -12963,20 +12962,20 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="A9:H29"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.453125" customWidth="1"/>
-    <col min="2" max="2" width="21.81640625" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="16.7265625" customWidth="1"/>
-    <col min="6" max="8" width="20.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="8" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="29">
+    <row r="1" spans="1:8" ht="30">
       <c r="A1" s="5" t="s">
         <v>104</v>
       </c>
@@ -13081,8 +13080,8 @@
         <v>0</v>
       </c>
       <c r="E4" s="73">
-        <f>'Aviation Calculations'!E4</f>
-        <v>6.0269145731933641E-4</v>
+        <f>AVERAGE('Aviation Calculations'!E5:E6)</f>
+        <v>3.7297762719289314E-4</v>
       </c>
       <c r="F4" s="73">
         <v>0</v>
@@ -13295,20 +13294,20 @@
   </sheetPr>
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.453125" customWidth="1"/>
-    <col min="2" max="2" width="21.81640625" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" customWidth="1"/>
-    <col min="4" max="5" width="16.7265625" customWidth="1"/>
-    <col min="6" max="8" width="20.54296875" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="8" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="29">
+    <row r="1" spans="1:8" ht="30">
       <c r="A1" s="5" t="s">
         <v>105</v>
       </c>
@@ -13412,8 +13411,8 @@
         <v>0</v>
       </c>
       <c r="E4" s="73">
-        <f>'Aviation Calculations'!E8</f>
-        <v>1.6207022383086511E-4</v>
+        <f>'Aviation Calculations'!E9</f>
+        <v>7.1350079212815194E-5</v>
       </c>
       <c r="F4" s="73">
         <v>0</v>
@@ -13686,15 +13685,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
@@ -13703,6 +13693,15 @@
     <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13935,20 +13934,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF912DF3-EA4C-4211-B7E9-EA25E2A94769}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D632F66-03C4-44FF-9808-B31E7AA18D4B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
     <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF912DF3-EA4C-4211-B7E9-EA25E2A94769}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/InputData/trans/SYFAFE/Start Year Fleet Avg Fuel Economy.xlsx
+++ b/InputData/trans/SYFAFE/Start Year Fleet Avg Fuel Economy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mary Francis Swint\Vensim\eps-eu\InputData\trans\SYFAFE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91CDC78-59A8-4164-BC5C-52DC15BA480E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D3A52D-FAC3-4066-9A1B-FF738C70076D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="742" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-5880" windowWidth="38640" windowHeight="21120" tabRatio="742" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -2786,10 +2786,10 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="139.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" customWidth="1"/>
+    <col min="2" max="2" width="139.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2853,7 +2853,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" ht="120">
+    <row r="14" spans="1:5" ht="87">
       <c r="B14" s="47" t="s">
         <v>10</v>
       </c>
@@ -2886,7 +2886,7 @@
       </c>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" ht="60">
+    <row r="20" spans="1:5" ht="43.5">
       <c r="B20" s="47" t="s">
         <v>14</v>
       </c>
@@ -3026,13 +3026,13 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="8" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.26953125" customWidth="1"/>
+    <col min="2" max="2" width="21.81640625" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" customWidth="1"/>
+    <col min="4" max="5" width="16.7265625" customWidth="1"/>
+    <col min="6" max="8" width="20.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -3502,12 +3502,12 @@
       <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1">
+    <row r="1" spans="1:4" ht="15" thickBot="1">
       <c r="A1" s="86" t="s">
         <v>179</v>
       </c>
@@ -7023,12 +7023,12 @@
       <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1">
+    <row r="1" spans="1:4" ht="15" thickBot="1">
       <c r="A1" s="86" t="s">
         <v>174</v>
       </c>
@@ -10563,20 +10563,20 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="40.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.54296875" customWidth="1"/>
+    <col min="2" max="2" width="13.7265625" customWidth="1"/>
+    <col min="3" max="3" width="23.81640625" customWidth="1"/>
+    <col min="4" max="4" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="42.7109375" customWidth="1"/>
+    <col min="7" max="7" width="42.7265625" customWidth="1"/>
     <col min="8" max="8" width="33" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.54296875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21" customWidth="1"/>
-    <col min="11" max="11" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -10859,7 +10859,7 @@
       </c>
       <c r="I13" s="60"/>
     </row>
-    <row r="14" spans="1:10" ht="45">
+    <row r="14" spans="1:10" ht="43.5">
       <c r="A14" s="21" t="s">
         <v>39</v>
       </c>
@@ -11932,14 +11932,14 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
-    <col min="7" max="7" width="41.85546875" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="38.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.26953125" customWidth="1"/>
+    <col min="7" max="7" width="41.81640625" customWidth="1"/>
+    <col min="8" max="8" width="18.54296875" customWidth="1"/>
+    <col min="9" max="9" width="21.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -12278,17 +12278,17 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E5" sqref="E5:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="31.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.81640625" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.5703125" customWidth="1"/>
-    <col min="8" max="9" width="19.5703125" customWidth="1"/>
+    <col min="7" max="7" width="42.54296875" customWidth="1"/>
+    <col min="8" max="9" width="19.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -12643,13 +12643,13 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="42" customWidth="1"/>
-    <col min="8" max="9" width="19.42578125" customWidth="1"/>
+    <col min="8" max="9" width="19.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -12961,21 +12961,21 @@
   </sheetPr>
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="8" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.453125" customWidth="1"/>
+    <col min="2" max="2" width="21.81640625" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="16.7265625" customWidth="1"/>
+    <col min="6" max="8" width="20.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30">
+    <row r="1" spans="1:8" ht="29">
       <c r="A1" s="5" t="s">
         <v>104</v>
       </c>
@@ -13080,8 +13080,8 @@
         <v>0</v>
       </c>
       <c r="E4" s="73">
-        <f>AVERAGE('Aviation Calculations'!E5:E6)</f>
-        <v>3.7297762719289314E-4</v>
+        <f>'Aviation Calculations'!E5</f>
+        <v>2.4082446227065575E-4</v>
       </c>
       <c r="F4" s="73">
         <v>0</v>
@@ -13294,20 +13294,20 @@
   </sheetPr>
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="8" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.453125" customWidth="1"/>
+    <col min="2" max="2" width="21.81640625" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" customWidth="1"/>
+    <col min="4" max="5" width="16.7265625" customWidth="1"/>
+    <col min="6" max="8" width="20.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30">
+    <row r="1" spans="1:8" ht="29">
       <c r="A1" s="5" t="s">
         <v>105</v>
       </c>
@@ -13685,26 +13685,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="14" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="4a12692b057bc30d68596ac87c75a308">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4dd464ebbb7361a2027b4bc4be8d527a" ns2:_="" ns3:_="">
     <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
@@ -13933,26 +13913,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D632F66-03C4-44FF-9808-B31E7AA18D4B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
-    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF912DF3-EA4C-4211-B7E9-EA25E2A94769}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE28452B-5587-40CC-A9EE-4AAF8A3A964E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13969,4 +13950,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF912DF3-EA4C-4211-B7E9-EA25E2A94769}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D632F66-03C4-44FF-9808-B31E7AA18D4B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/InputData/trans/SYFAFE/Start Year Fleet Avg Fuel Economy.xlsx
+++ b/InputData/trans/SYFAFE/Start Year Fleet Avg Fuel Economy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mary Francis Swint\Vensim\eps-eu\InputData\trans\SYFAFE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel Goldstein\Dropbox (Energy Innovation)\Desktop\Vensim files from GitHub\EPS EU\InputData\trans\SYFAFE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D3A52D-FAC3-4066-9A1B-FF738C70076D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BFF9753-D5A5-44D6-BB13-5C4D3311A67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5880" windowWidth="38640" windowHeight="21120" tabRatio="742" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="35220" yWindow="1935" windowWidth="21600" windowHeight="12645" tabRatio="742" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -2786,10 +2786,10 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.453125" customWidth="1"/>
-    <col min="2" max="2" width="139.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="139.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2853,7 +2853,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" ht="87">
+    <row r="14" spans="1:5" ht="120">
       <c r="B14" s="47" t="s">
         <v>10</v>
       </c>
@@ -2886,7 +2886,7 @@
       </c>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" ht="43.5">
+    <row r="20" spans="1:5" ht="60">
       <c r="B20" s="47" t="s">
         <v>14</v>
       </c>
@@ -3026,13 +3026,13 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.26953125" customWidth="1"/>
-    <col min="2" max="2" width="21.81640625" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" customWidth="1"/>
-    <col min="4" max="5" width="16.7265625" customWidth="1"/>
-    <col min="6" max="8" width="20.54296875" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="8" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -3502,12 +3502,12 @@
       <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="44.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1">
       <c r="A1" s="86" t="s">
         <v>179</v>
       </c>
@@ -7023,12 +7023,12 @@
       <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="44.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1">
       <c r="A1" s="86" t="s">
         <v>174</v>
       </c>
@@ -10561,22 +10561,24 @@
   </sheetPr>
   <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="40.54296875" customWidth="1"/>
-    <col min="2" max="2" width="13.7265625" customWidth="1"/>
-    <col min="3" max="3" width="23.81640625" customWidth="1"/>
-    <col min="4" max="4" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="42.7265625" customWidth="1"/>
+    <col min="7" max="7" width="42.7109375" customWidth="1"/>
     <col min="8" max="8" width="33" customWidth="1"/>
-    <col min="9" max="9" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21" customWidth="1"/>
-    <col min="11" max="11" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -10859,7 +10861,7 @@
       </c>
       <c r="I13" s="60"/>
     </row>
-    <row r="14" spans="1:10" ht="43.5">
+    <row r="14" spans="1:10" ht="45">
       <c r="A14" s="21" t="s">
         <v>39</v>
       </c>
@@ -11018,7 +11020,7 @@
         <v>5842331988.5945225</v>
       </c>
       <c r="E19" s="54">
-        <f t="shared" si="4"/>
+        <f>D19/C60</f>
         <v>1.1619869328143087E-3</v>
       </c>
       <c r="G19" s="61" t="s">
@@ -11702,7 +11704,7 @@
         <v>126.70081146560065</v>
       </c>
       <c r="C60" s="50">
-        <f t="shared" si="11"/>
+        <f>B60*$G$10</f>
         <v>5027880971470.5771</v>
       </c>
       <c r="E60" s="50"/>
@@ -11932,14 +11934,14 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="38.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.26953125" customWidth="1"/>
-    <col min="7" max="7" width="41.81640625" customWidth="1"/>
-    <col min="8" max="8" width="18.54296875" customWidth="1"/>
-    <col min="9" max="9" width="21.453125" customWidth="1"/>
+    <col min="1" max="1" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="7" max="7" width="41.85546875" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -12281,14 +12283,14 @@
       <selection activeCell="E5" sqref="E5:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.81640625" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.54296875" customWidth="1"/>
-    <col min="8" max="9" width="19.54296875" customWidth="1"/>
+    <col min="7" max="7" width="42.5703125" customWidth="1"/>
+    <col min="8" max="9" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -12643,13 +12645,13 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="42" customWidth="1"/>
-    <col min="8" max="9" width="19.453125" customWidth="1"/>
+    <col min="8" max="9" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -12961,21 +12963,21 @@
   </sheetPr>
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.453125" customWidth="1"/>
-    <col min="2" max="2" width="21.81640625" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="16.7265625" customWidth="1"/>
-    <col min="6" max="8" width="20.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="8" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="29">
+    <row r="1" spans="1:8" ht="30">
       <c r="A1" s="5" t="s">
         <v>104</v>
       </c>
@@ -13298,16 +13300,16 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.453125" customWidth="1"/>
-    <col min="2" max="2" width="21.81640625" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" customWidth="1"/>
-    <col min="4" max="5" width="16.7265625" customWidth="1"/>
-    <col min="6" max="8" width="20.54296875" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="8" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="29">
+    <row r="1" spans="1:8" ht="30">
       <c r="A1" s="5" t="s">
         <v>105</v>
       </c>
@@ -13914,15 +13916,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
@@ -13931,6 +13924,15 @@
     <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13953,14 +13955,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF912DF3-EA4C-4211-B7E9-EA25E2A94769}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D632F66-03C4-44FF-9808-B31E7AA18D4B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -13969,4 +13963,12 @@
     <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF912DF3-EA4C-4211-B7E9-EA25E2A94769}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/InputData/trans/SYFAFE/Start Year Fleet Avg Fuel Economy.xlsx
+++ b/InputData/trans/SYFAFE/Start Year Fleet Avg Fuel Economy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel Goldstein\Dropbox (Energy Innovation)\Desktop\Vensim files from GitHub\EPS EU\InputData\trans\SYFAFE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\EU\eps-eu\InputData\trans\SYFAFE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BFF9753-D5A5-44D6-BB13-5C4D3311A67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959FEAF3-0680-49A8-A38F-88E581FD08A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="35220" yWindow="1935" windowWidth="21600" windowHeight="12645" tabRatio="742" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32565" yWindow="2250" windowWidth="22245" windowHeight="14595" tabRatio="742" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -20,25 +20,35 @@
     <sheet name="Rail Calculations" sheetId="28" r:id="rId5"/>
     <sheet name="Aviation Calculations" sheetId="36" r:id="rId6"/>
     <sheet name="Ships Calculations" sheetId="37" r:id="rId7"/>
-    <sheet name="SYFAFE-psgr" sheetId="23" r:id="rId8"/>
-    <sheet name="SYFAFE-frgt" sheetId="24" r:id="rId9"/>
-    <sheet name="Calibration Adjustments" sheetId="25" r:id="rId10"/>
+    <sheet name="BNVFE-ships-frgt" sheetId="40" r:id="rId8"/>
+    <sheet name="BNVFE-aircraft-psgr" sheetId="41" r:id="rId9"/>
+    <sheet name="SYFAFE-psgr" sheetId="23" r:id="rId10"/>
+    <sheet name="SYFAFE-frgt" sheetId="24" r:id="rId11"/>
+    <sheet name="Calibration Adjustments" sheetId="25" r:id="rId12"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId13"/>
   </externalReferences>
   <definedNames>
     <definedName name="Eno_TM" localSheetId="8">'[1]1997  Table 1a Modified'!#REF!</definedName>
+    <definedName name="Eno_TM" localSheetId="7">'[1]1997  Table 1a Modified'!#REF!</definedName>
+    <definedName name="Eno_TM" localSheetId="10">'[1]1997  Table 1a Modified'!#REF!</definedName>
     <definedName name="Eno_TM">'[1]1997  Table 1a Modified'!#REF!</definedName>
     <definedName name="Eno_Tons" localSheetId="8">'[1]1997  Table 1a Modified'!#REF!</definedName>
+    <definedName name="Eno_Tons" localSheetId="7">'[1]1997  Table 1a Modified'!#REF!</definedName>
+    <definedName name="Eno_Tons" localSheetId="10">'[1]1997  Table 1a Modified'!#REF!</definedName>
     <definedName name="Eno_Tons">'[1]1997  Table 1a Modified'!#REF!</definedName>
-    <definedName name="Sum_T2" localSheetId="8">'[1]1997  Table 1a Modified'!#REF!</definedName>
+    <definedName name="Sum_T2" localSheetId="10">'[1]1997  Table 1a Modified'!#REF!</definedName>
     <definedName name="Sum_T2">'[1]1997  Table 1a Modified'!#REF!</definedName>
-    <definedName name="Sum_TTM" localSheetId="8">'[1]1997  Table 1a Modified'!#REF!</definedName>
+    <definedName name="Sum_TTM" localSheetId="10">'[1]1997  Table 1a Modified'!#REF!</definedName>
     <definedName name="Sum_TTM">'[1]1997  Table 1a Modified'!#REF!</definedName>
     <definedName name="ti_tbl_50" localSheetId="8">#REF!</definedName>
+    <definedName name="ti_tbl_50" localSheetId="7">#REF!</definedName>
+    <definedName name="ti_tbl_50" localSheetId="10">#REF!</definedName>
     <definedName name="ti_tbl_50">#REF!</definedName>
     <definedName name="ti_tbl_69" localSheetId="8">#REF!</definedName>
+    <definedName name="ti_tbl_69" localSheetId="7">#REF!</definedName>
+    <definedName name="ti_tbl_69" localSheetId="10">#REF!</definedName>
     <definedName name="ti_tbl_69">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -62,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="186">
   <si>
     <t>SYFAFE Start Year Fleet Avg Fuel Economy</t>
   </si>
@@ -619,13 +629,16 @@
   </si>
   <si>
     <t>EU27 - Coastal shipping and inland waterways</t>
+  </si>
+  <si>
+    <t>Fuel Economy (thing*miles/BTU)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="12">
+  <numFmts count="13">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -638,6 +651,7 @@
     <numFmt numFmtId="171" formatCode="0.0"/>
     <numFmt numFmtId="172" formatCode="0.000"/>
     <numFmt numFmtId="173" formatCode="#,##0.000000000_);\(#,##0.000000000\)"/>
+    <numFmt numFmtId="174" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="58">
     <font>
@@ -1833,7 +1847,7 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2237,6 +2251,8 @@
     </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="57" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="156">
     <cellStyle name="20% - Accent1 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2786,10 +2802,10 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="139.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" customWidth="1"/>
+    <col min="2" max="2" width="139.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2853,7 +2869,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" ht="120">
+    <row r="14" spans="1:5" ht="87">
       <c r="B14" s="47" t="s">
         <v>10</v>
       </c>
@@ -2886,7 +2902,7 @@
       </c>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" ht="60">
+    <row r="20" spans="1:5" ht="43.5">
       <c r="B20" s="47" t="s">
         <v>14</v>
       </c>
@@ -3019,6 +3035,740 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="22.453125" customWidth="1"/>
+    <col min="2" max="2" width="21.81640625" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="16.7265625" customWidth="1"/>
+    <col min="6" max="8" width="20.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="29">
+      <c r="A1" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="73">
+        <f>'Road Calculations'!E12</f>
+        <v>8.1118470298065096E-4</v>
+      </c>
+      <c r="C2" s="73">
+        <f>'Road Calculations'!E10</f>
+        <v>4.8269184907871629E-4</v>
+      </c>
+      <c r="D2" s="73">
+        <f>'Road Calculations'!E40</f>
+        <v>4.8630017856737665E-4</v>
+      </c>
+      <c r="E2" s="73">
+        <f>'Road Calculations'!E40</f>
+        <v>4.8630017856737665E-4</v>
+      </c>
+      <c r="F2" s="73">
+        <f>'Road Calculations'!E11</f>
+        <v>6.6041724155835833E-4</v>
+      </c>
+      <c r="G2" s="73">
+        <f>'Road Calculations'!E9</f>
+        <v>4.0520775484588701E-4</v>
+      </c>
+      <c r="H2" s="73">
+        <f>'Road Calculations'!E13</f>
+        <v>6.2031771404402725E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" s="73">
+        <f>'Road Calculations'!E19</f>
+        <v>1.1619869328143087E-3</v>
+      </c>
+      <c r="C3" s="73">
+        <f>'Road Calculations'!E18</f>
+        <v>6.7175372810566298E-4</v>
+      </c>
+      <c r="D3" s="73">
+        <f>'Road Calculations'!E15</f>
+        <v>8.9149851051731452E-4</v>
+      </c>
+      <c r="E3" s="73">
+        <f>'Road Calculations'!E16</f>
+        <v>5.8435633048938387E-4</v>
+      </c>
+      <c r="F3" s="73">
+        <v>0</v>
+      </c>
+      <c r="G3" s="73">
+        <f>'Road Calculations'!E17</f>
+        <v>7.2225518249418067E-4</v>
+      </c>
+      <c r="H3" s="73">
+        <f>'Road Calculations'!E20</f>
+        <v>8.8857824274035375E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" s="73">
+        <v>0</v>
+      </c>
+      <c r="C4" s="73">
+        <v>0</v>
+      </c>
+      <c r="D4" s="73">
+        <v>0</v>
+      </c>
+      <c r="E4" s="73">
+        <f>'Aviation Calculations'!E15</f>
+        <v>4.3482228168911644E-4</v>
+      </c>
+      <c r="F4" s="73">
+        <v>0</v>
+      </c>
+      <c r="G4" s="73">
+        <v>0</v>
+      </c>
+      <c r="H4" s="152">
+        <f>'BNVFE-aircraft-psgr'!D8</f>
+        <v>5.9738588651107264E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="73">
+        <f>'Rail Calculations'!E6</f>
+        <v>1.806355227166114E-3</v>
+      </c>
+      <c r="C5" s="73">
+        <v>0</v>
+      </c>
+      <c r="D5" s="73">
+        <v>0</v>
+      </c>
+      <c r="E5" s="73">
+        <f>'Rail Calculations'!E5</f>
+        <v>9.3028717889103905E-4</v>
+      </c>
+      <c r="F5" s="73">
+        <v>0</v>
+      </c>
+      <c r="G5" s="73">
+        <v>0</v>
+      </c>
+      <c r="H5" s="73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B6" s="73">
+        <v>0</v>
+      </c>
+      <c r="C6" s="73">
+        <v>0</v>
+      </c>
+      <c r="D6" s="73">
+        <v>0</v>
+      </c>
+      <c r="E6" s="73">
+        <v>0</v>
+      </c>
+      <c r="F6" s="73">
+        <v>0</v>
+      </c>
+      <c r="G6" s="73">
+        <v>0</v>
+      </c>
+      <c r="H6" s="73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" s="73">
+        <v>0</v>
+      </c>
+      <c r="C7" s="73">
+        <v>0</v>
+      </c>
+      <c r="D7" s="73">
+        <f>'Road Calculations'!E5</f>
+        <v>6.1075124646533467E-4</v>
+      </c>
+      <c r="E7" s="73">
+        <v>0</v>
+      </c>
+      <c r="F7" s="73">
+        <v>0</v>
+      </c>
+      <c r="G7" s="73">
+        <v>0</v>
+      </c>
+      <c r="H7" s="73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15" s="73"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" s="73"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="73"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="73"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="146"/>
+      <c r="C24" s="146"/>
+      <c r="D24" s="146"/>
+      <c r="E24" s="146"/>
+      <c r="F24" s="146"/>
+      <c r="G24" s="146"/>
+      <c r="H24" s="146"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="146"/>
+      <c r="C25" s="146"/>
+      <c r="D25" s="146"/>
+      <c r="E25" s="146"/>
+      <c r="F25" s="146"/>
+      <c r="G25" s="146"/>
+      <c r="H25" s="146"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="146"/>
+      <c r="C26" s="146"/>
+      <c r="D26" s="146"/>
+      <c r="E26" s="146"/>
+      <c r="F26" s="146"/>
+      <c r="G26" s="146"/>
+      <c r="H26" s="146"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="146"/>
+      <c r="C27" s="146"/>
+      <c r="D27" s="146"/>
+      <c r="E27" s="146"/>
+      <c r="F27" s="146"/>
+      <c r="G27" s="146"/>
+      <c r="H27" s="146"/>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="146"/>
+      <c r="C28" s="146"/>
+      <c r="D28" s="146"/>
+      <c r="E28" s="146"/>
+      <c r="F28" s="146"/>
+      <c r="G28" s="146"/>
+      <c r="H28" s="146"/>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="146"/>
+      <c r="C29" s="146"/>
+      <c r="D29" s="146"/>
+      <c r="E29" s="146"/>
+      <c r="F29" s="146"/>
+      <c r="G29" s="146"/>
+      <c r="H29" s="146"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="21.453125" customWidth="1"/>
+    <col min="2" max="2" width="21.81640625" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" customWidth="1"/>
+    <col min="4" max="5" width="16.7265625" customWidth="1"/>
+    <col min="6" max="8" width="20.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="29">
+      <c r="A1" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="73">
+        <f>'Road Calculations'!E27</f>
+        <v>8.9661704050521422E-5</v>
+      </c>
+      <c r="C2" s="73">
+        <f>'Road Calculations'!E26</f>
+        <v>4.2850803897423623E-5</v>
+      </c>
+      <c r="D2" s="73">
+        <f>'Road Calculations'!E23</f>
+        <v>4.6546514834821094E-5</v>
+      </c>
+      <c r="E2" s="73">
+        <f>'Road Calculations'!E24</f>
+        <v>6.0954400132705486E-5</v>
+      </c>
+      <c r="F2" s="73">
+        <f>'Road Calculations'!E28</f>
+        <v>1.0385837422457729E-4</v>
+      </c>
+      <c r="G2" s="73">
+        <f>'Road Calculations'!E25</f>
+        <v>3.4677248187766766E-5</v>
+      </c>
+      <c r="H2" s="73">
+        <f>'Road Calculations'!E29</f>
+        <v>6.8564832509222261E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" s="73">
+        <f>'Road Calculations'!E34</f>
+        <v>9.4864949648538815E-4</v>
+      </c>
+      <c r="C3" s="73">
+        <f>'Road Calculations'!E33</f>
+        <v>3.9152330298862829E-4</v>
+      </c>
+      <c r="D3" s="73">
+        <f>'Road Calculations'!E32</f>
+        <v>4.6042641564768977E-4</v>
+      </c>
+      <c r="E3" s="73">
+        <f>'Road Calculations'!E31</f>
+        <v>4.0634100093132349E-4</v>
+      </c>
+      <c r="F3" s="73">
+        <v>0</v>
+      </c>
+      <c r="G3" s="73">
+        <v>0</v>
+      </c>
+      <c r="H3" s="73">
+        <f>'Road Calculations'!E35</f>
+        <v>7.818784039717835E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" s="73">
+        <v>0</v>
+      </c>
+      <c r="C4" s="73">
+        <v>0</v>
+      </c>
+      <c r="D4" s="73">
+        <v>0</v>
+      </c>
+      <c r="E4" s="73">
+        <f>'Aviation Calculations'!E9</f>
+        <v>7.1350079212815194E-5</v>
+      </c>
+      <c r="F4" s="73">
+        <v>0</v>
+      </c>
+      <c r="G4" s="73">
+        <v>0</v>
+      </c>
+      <c r="H4" s="73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="73">
+        <f>'Rail Calculations'!E9</f>
+        <v>5.0189004572410009E-3</v>
+      </c>
+      <c r="C5" s="73">
+        <v>0</v>
+      </c>
+      <c r="D5" s="73">
+        <v>0</v>
+      </c>
+      <c r="E5" s="73">
+        <f>'Rail Calculations'!E8</f>
+        <v>3.3240466210502032E-3</v>
+      </c>
+      <c r="F5" s="73">
+        <v>0</v>
+      </c>
+      <c r="G5" s="73">
+        <v>0</v>
+      </c>
+      <c r="H5" s="73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B6" s="152">
+        <f>'BNVFE-ships-frgt'!D2</f>
+        <v>1.5830834119412217E-3</v>
+      </c>
+      <c r="C6" s="152">
+        <f>'BNVFE-ships-frgt'!D3</f>
+        <v>1.108158388358855E-3</v>
+      </c>
+      <c r="D6" s="73">
+        <v>0</v>
+      </c>
+      <c r="E6" s="73">
+        <f>'Ships Calculations'!E8</f>
+        <v>1.1145989755906977E-3</v>
+      </c>
+      <c r="F6" s="73">
+        <v>0</v>
+      </c>
+      <c r="G6" s="73">
+        <v>0</v>
+      </c>
+      <c r="H6" s="152">
+        <f>'BNVFE-ships-frgt'!D8</f>
+        <v>1.3419899748932924E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" s="73">
+        <v>0</v>
+      </c>
+      <c r="C7" s="73">
+        <v>0</v>
+      </c>
+      <c r="D7" s="73">
+        <v>0</v>
+      </c>
+      <c r="E7" s="73">
+        <v>0</v>
+      </c>
+      <c r="F7" s="73">
+        <v>0</v>
+      </c>
+      <c r="G7" s="73">
+        <v>0</v>
+      </c>
+      <c r="H7" s="73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="E9" s="73"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="147"/>
+      <c r="B11" s="148"/>
+      <c r="C11" s="148"/>
+      <c r="D11" s="148"/>
+      <c r="E11" s="148"/>
+      <c r="F11" s="148"/>
+      <c r="G11" s="148"/>
+      <c r="H11" s="148"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="149"/>
+      <c r="B12" s="150"/>
+      <c r="C12" s="150"/>
+      <c r="D12" s="150"/>
+      <c r="E12" s="150"/>
+      <c r="F12" s="150"/>
+      <c r="G12" s="150"/>
+      <c r="H12" s="150"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="149"/>
+      <c r="B13" s="150"/>
+      <c r="C13" s="150"/>
+      <c r="D13" s="150"/>
+      <c r="E13" s="150"/>
+      <c r="F13" s="150"/>
+      <c r="G13" s="150"/>
+      <c r="H13" s="150"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="149"/>
+      <c r="B14" s="150"/>
+      <c r="C14" s="150"/>
+      <c r="D14" s="150"/>
+      <c r="E14" s="150"/>
+      <c r="F14" s="150"/>
+      <c r="G14" s="150"/>
+      <c r="H14" s="150"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="149"/>
+      <c r="B15" s="150"/>
+      <c r="C15" s="150"/>
+      <c r="D15" s="150"/>
+      <c r="E15" s="150"/>
+      <c r="F15" s="150"/>
+      <c r="G15" s="150"/>
+      <c r="H15" s="150"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="149"/>
+      <c r="B16" s="150"/>
+      <c r="C16" s="150"/>
+      <c r="D16" s="150"/>
+      <c r="E16" s="150"/>
+      <c r="F16" s="150"/>
+      <c r="G16" s="150"/>
+      <c r="H16" s="150"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="149"/>
+      <c r="B17" s="150"/>
+      <c r="C17" s="150"/>
+      <c r="D17" s="150"/>
+      <c r="E17" s="150"/>
+      <c r="F17" s="150"/>
+      <c r="G17" s="150"/>
+      <c r="H17" s="150"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="146"/>
+      <c r="B20" s="146"/>
+      <c r="C20" s="146"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="146"/>
+      <c r="G20" s="146"/>
+      <c r="H20" s="146"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="146"/>
+      <c r="B21" s="146"/>
+      <c r="C21" s="146"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="146"/>
+      <c r="G21" s="146"/>
+      <c r="H21" s="146"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="146"/>
+      <c r="B22" s="146"/>
+      <c r="C22" s="146"/>
+      <c r="D22" s="146"/>
+      <c r="E22" s="146"/>
+      <c r="F22" s="146"/>
+      <c r="G22" s="146"/>
+      <c r="H22" s="146"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="146"/>
+      <c r="B23" s="146"/>
+      <c r="C23" s="146"/>
+      <c r="D23" s="146"/>
+      <c r="E23" s="146"/>
+      <c r="F23" s="146"/>
+      <c r="G23" s="146"/>
+      <c r="H23" s="146"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="146"/>
+      <c r="B24" s="146"/>
+      <c r="C24" s="146"/>
+      <c r="D24" s="146"/>
+      <c r="E24" s="146"/>
+      <c r="F24" s="146"/>
+      <c r="G24" s="146"/>
+      <c r="H24" s="146"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="146"/>
+      <c r="B25" s="146"/>
+      <c r="C25" s="146"/>
+      <c r="D25" s="146"/>
+      <c r="E25" s="146"/>
+      <c r="F25" s="146"/>
+      <c r="G25" s="146"/>
+      <c r="H25" s="146"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="146"/>
+      <c r="B26" s="146"/>
+      <c r="C26" s="146"/>
+      <c r="D26" s="146"/>
+      <c r="E26" s="146"/>
+      <c r="F26" s="146"/>
+      <c r="G26" s="146"/>
+      <c r="H26" s="146"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="146"/>
+      <c r="B27" s="146"/>
+      <c r="C27" s="146"/>
+      <c r="D27" s="146"/>
+      <c r="E27" s="146"/>
+      <c r="F27" s="146"/>
+      <c r="G27" s="146"/>
+      <c r="H27" s="146"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="146"/>
+      <c r="B28" s="146"/>
+      <c r="C28" s="146"/>
+      <c r="D28" s="146"/>
+      <c r="E28" s="146"/>
+      <c r="F28" s="146"/>
+      <c r="G28" s="146"/>
+      <c r="H28" s="146"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="146"/>
+      <c r="B29" s="146"/>
+      <c r="C29" s="146"/>
+      <c r="D29" s="146"/>
+      <c r="E29" s="146"/>
+      <c r="F29" s="146"/>
+      <c r="G29" s="146"/>
+      <c r="H29" s="146"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H33"/>
   <sheetViews>
@@ -3026,13 +3776,13 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="8" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.26953125" customWidth="1"/>
+    <col min="2" max="2" width="21.81640625" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" customWidth="1"/>
+    <col min="4" max="5" width="16.7265625" customWidth="1"/>
+    <col min="6" max="8" width="20.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -3502,12 +4252,12 @@
       <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1">
+    <row r="1" spans="1:4" ht="15" thickBot="1">
       <c r="A1" s="86" t="s">
         <v>179</v>
       </c>
@@ -7023,12 +7773,12 @@
       <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1">
+    <row r="1" spans="1:4" ht="15" thickBot="1">
       <c r="A1" s="86" t="s">
         <v>174</v>
       </c>
@@ -10561,24 +11311,24 @@
   </sheetPr>
   <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="40.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.54296875" customWidth="1"/>
+    <col min="2" max="2" width="13.7265625" customWidth="1"/>
+    <col min="3" max="3" width="23.81640625" customWidth="1"/>
+    <col min="4" max="4" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="42.7109375" customWidth="1"/>
+    <col min="7" max="7" width="42.7265625" customWidth="1"/>
     <col min="8" max="8" width="33" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.54296875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21" customWidth="1"/>
-    <col min="11" max="11" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -10861,7 +11611,7 @@
       </c>
       <c r="I13" s="60"/>
     </row>
-    <row r="14" spans="1:10" ht="45">
+    <row r="14" spans="1:10" ht="43.5">
       <c r="A14" s="21" t="s">
         <v>39</v>
       </c>
@@ -10878,7 +11628,7 @@
         <v>340502519583.56525</v>
       </c>
       <c r="E14" s="54">
-        <f t="shared" ref="E14:E19" si="4">D14/C55</f>
+        <f t="shared" ref="E14:E18" si="4">D14/C55</f>
         <v>5.9754625102748375E-4</v>
       </c>
       <c r="G14" s="61" t="s">
@@ -11934,14 +12684,14 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
-    <col min="7" max="7" width="41.85546875" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="38.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.26953125" customWidth="1"/>
+    <col min="7" max="7" width="41.81640625" customWidth="1"/>
+    <col min="8" max="8" width="18.54296875" customWidth="1"/>
+    <col min="9" max="9" width="21.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -12280,17 +13030,17 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="31.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.81640625" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.5703125" customWidth="1"/>
-    <col min="8" max="9" width="19.5703125" customWidth="1"/>
+    <col min="7" max="7" width="42.54296875" customWidth="1"/>
+    <col min="8" max="9" width="19.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -12558,7 +13308,10 @@
         <f t="shared" si="7"/>
         <v>269343929022926.53</v>
       </c>
-      <c r="E15" s="50"/>
+      <c r="E15" s="50">
+        <f>SUM(D5:D6)/SUM(C15:C16)</f>
+        <v>4.3482228168911644E-4</v>
+      </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="32" t="s">
@@ -12645,13 +13398,13 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="42" customWidth="1"/>
-    <col min="8" max="9" width="19.42578125" customWidth="1"/>
+    <col min="8" max="9" width="19.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -12957,332 +13710,832 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D564B3D2-6D52-4BE0-B4EE-56F536F2EFF8}">
   <sheetPr>
-    <tabColor theme="3"/>
+    <tabColor theme="1"/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:AG9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="8" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="31.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30">
-      <c r="A1" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:33">
+      <c r="A1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1">
+        <v>2019</v>
+      </c>
+      <c r="C1">
+        <v>2020</v>
+      </c>
+      <c r="D1">
+        <v>2021</v>
+      </c>
+      <c r="E1">
+        <v>2022</v>
+      </c>
+      <c r="F1">
+        <v>2023</v>
+      </c>
+      <c r="G1">
+        <v>2024</v>
+      </c>
+      <c r="H1">
+        <v>2025</v>
+      </c>
+      <c r="I1">
+        <v>2026</v>
+      </c>
+      <c r="J1">
+        <v>2027</v>
+      </c>
+      <c r="K1">
+        <v>2028</v>
+      </c>
+      <c r="L1">
+        <v>2029</v>
+      </c>
+      <c r="M1">
+        <v>2030</v>
+      </c>
+      <c r="N1">
+        <v>2031</v>
+      </c>
+      <c r="O1">
+        <v>2032</v>
+      </c>
+      <c r="P1">
+        <v>2033</v>
+      </c>
+      <c r="Q1">
+        <v>2034</v>
+      </c>
+      <c r="R1">
+        <v>2035</v>
+      </c>
+      <c r="S1">
+        <v>2036</v>
+      </c>
+      <c r="T1">
+        <v>2037</v>
+      </c>
+      <c r="U1">
+        <v>2038</v>
+      </c>
+      <c r="V1">
+        <v>2039</v>
+      </c>
+      <c r="W1">
+        <v>2040</v>
+      </c>
+      <c r="X1">
+        <v>2041</v>
+      </c>
+      <c r="Y1">
+        <v>2042</v>
+      </c>
+      <c r="Z1">
+        <v>2043</v>
+      </c>
+      <c r="AA1">
+        <v>2044</v>
+      </c>
+      <c r="AB1">
+        <v>2045</v>
+      </c>
+      <c r="AC1">
+        <v>2046</v>
+      </c>
+      <c r="AD1">
+        <v>2047</v>
+      </c>
+      <c r="AE1">
+        <v>2048</v>
+      </c>
+      <c r="AF1">
+        <v>2049</v>
+      </c>
+      <c r="AG1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33">
+      <c r="A2" t="s">
         <v>145</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="B2" s="151">
+        <v>1.6088596244130246E-3</v>
+      </c>
+      <c r="C2" s="151">
+        <v>1.5619341587592545E-3</v>
+      </c>
+      <c r="D2" s="151">
+        <v>1.5830834119412217E-3</v>
+      </c>
+      <c r="E2" s="151">
+        <v>1.6592266741379457E-3</v>
+      </c>
+      <c r="F2" s="151">
+        <v>1.6823459075558842E-3</v>
+      </c>
+      <c r="G2" s="151">
+        <v>1.633572277803098E-3</v>
+      </c>
+      <c r="H2" s="151">
+        <v>1.6505846755462165E-3</v>
+      </c>
+      <c r="I2" s="151">
+        <v>1.66623312346106E-3</v>
+      </c>
+      <c r="J2" s="151">
+        <v>1.6821559535963257E-3</v>
+      </c>
+      <c r="K2" s="151">
+        <v>1.7196775299765153E-3</v>
+      </c>
+      <c r="L2" s="151">
+        <v>1.7901459662565669E-3</v>
+      </c>
+      <c r="M2" s="151">
+        <v>1.6522066689460147E-3</v>
+      </c>
+      <c r="N2" s="151">
+        <v>1.7815974962728733E-3</v>
+      </c>
+      <c r="O2" s="151">
+        <v>1.6885651058481715E-3</v>
+      </c>
+      <c r="P2" s="151">
+        <v>1.7300380398519734E-3</v>
+      </c>
+      <c r="Q2" s="151">
+        <v>1.8168615248669038E-3</v>
+      </c>
+      <c r="R2" s="151">
+        <v>1.8077264906206211E-3</v>
+      </c>
+      <c r="S2" s="151">
+        <v>1.7366617719776463E-3</v>
+      </c>
+      <c r="T2" s="151">
+        <v>1.9340902473065744E-3</v>
+      </c>
+      <c r="U2" s="151">
+        <v>1.6500595060579262E-3</v>
+      </c>
+      <c r="V2" s="151">
+        <v>2.0626476867983711E-3</v>
+      </c>
+      <c r="W2" s="151">
+        <v>1.7467460359981099E-3</v>
+      </c>
+      <c r="X2" s="151">
+        <v>1.9041557296640994E-3</v>
+      </c>
+      <c r="Y2" s="151">
+        <v>1.7663855604349893E-3</v>
+      </c>
+      <c r="Z2" s="151">
+        <v>1.8287547170813894E-3</v>
+      </c>
+      <c r="AA2" s="151">
+        <v>1.8525403981999461E-3</v>
+      </c>
+      <c r="AB2" s="151">
+        <v>1.884536642790226E-3</v>
+      </c>
+      <c r="AC2" s="151">
+        <v>1.8082892129521236E-3</v>
+      </c>
+      <c r="AD2" s="151">
+        <v>1.8029628106274551E-3</v>
+      </c>
+      <c r="AE2" s="151">
+        <v>1.8392538453039233E-3</v>
+      </c>
+      <c r="AF2" s="151">
+        <v>1.8017051192365952E-3</v>
+      </c>
+      <c r="AG2" s="151">
+        <v>1.8810541654200464E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33">
+      <c r="A3" t="s">
         <v>146</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="B3" s="151">
+        <v>1.1262017370891172E-3</v>
+      </c>
+      <c r="C3" s="151">
+        <v>1.0933539111314782E-3</v>
+      </c>
+      <c r="D3" s="151">
+        <v>1.108158388358855E-3</v>
+      </c>
+      <c r="E3" s="151">
+        <v>1.161458671896562E-3</v>
+      </c>
+      <c r="F3" s="151">
+        <v>1.1776421352891189E-3</v>
+      </c>
+      <c r="G3" s="151">
+        <v>1.1435005944621685E-3</v>
+      </c>
+      <c r="H3" s="151">
+        <v>1.1554092728823513E-3</v>
+      </c>
+      <c r="I3" s="151">
+        <v>1.1663631864227419E-3</v>
+      </c>
+      <c r="J3" s="151">
+        <v>1.1775091675174279E-3</v>
+      </c>
+      <c r="K3" s="151">
+        <v>1.2037742709835608E-3</v>
+      </c>
+      <c r="L3" s="151">
+        <v>1.2531021763795966E-3</v>
+      </c>
+      <c r="M3" s="151">
+        <v>1.1565446682622101E-3</v>
+      </c>
+      <c r="N3" s="151">
+        <v>1.2471182473910113E-3</v>
+      </c>
+      <c r="O3" s="151">
+        <v>1.18199557409372E-3</v>
+      </c>
+      <c r="P3" s="151">
+        <v>1.2110266278963814E-3</v>
+      </c>
+      <c r="Q3" s="151">
+        <v>1.2718030674068327E-3</v>
+      </c>
+      <c r="R3" s="151">
+        <v>1.2654085434344348E-3</v>
+      </c>
+      <c r="S3" s="151">
+        <v>1.2156632403843525E-3</v>
+      </c>
+      <c r="T3" s="151">
+        <v>1.3538631731146022E-3</v>
+      </c>
+      <c r="U3" s="151">
+        <v>1.1550416542405481E-3</v>
+      </c>
+      <c r="V3" s="151">
+        <v>1.4438533807588597E-3</v>
+      </c>
+      <c r="W3" s="151">
+        <v>1.2227222251986769E-3</v>
+      </c>
+      <c r="X3" s="151">
+        <v>1.3329090107648696E-3</v>
+      </c>
+      <c r="Y3" s="151">
+        <v>1.2364698923044923E-3</v>
+      </c>
+      <c r="Z3" s="151">
+        <v>1.2801283019569724E-3</v>
+      </c>
+      <c r="AA3" s="151">
+        <v>1.2967782787399623E-3</v>
+      </c>
+      <c r="AB3" s="151">
+        <v>1.3191756499531583E-3</v>
+      </c>
+      <c r="AC3" s="151">
+        <v>1.2658024490664866E-3</v>
+      </c>
+      <c r="AD3" s="151">
+        <v>1.2620739674392184E-3</v>
+      </c>
+      <c r="AE3" s="151">
+        <v>1.2874776917127463E-3</v>
+      </c>
+      <c r="AF3" s="151">
+        <v>1.2611935834656164E-3</v>
+      </c>
+      <c r="AG3" s="151">
+        <v>1.3167379157940325E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33">
+      <c r="A4" t="s">
         <v>147</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33">
+      <c r="A5" t="s">
         <v>148</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="B5" s="151">
+        <v>1.1262017370891172E-3</v>
+      </c>
+      <c r="C5" s="151">
+        <v>1.0933539111314782E-3</v>
+      </c>
+      <c r="D5" s="151">
+        <v>1.108158388358855E-3</v>
+      </c>
+      <c r="E5" s="151">
+        <v>1.161458671896562E-3</v>
+      </c>
+      <c r="F5" s="151">
+        <v>1.1776421352891189E-3</v>
+      </c>
+      <c r="G5" s="151">
+        <v>1.1435005944621685E-3</v>
+      </c>
+      <c r="H5" s="151">
+        <v>1.1554092728823513E-3</v>
+      </c>
+      <c r="I5" s="151">
+        <v>1.1663631864227419E-3</v>
+      </c>
+      <c r="J5" s="151">
+        <v>1.1775091675174279E-3</v>
+      </c>
+      <c r="K5" s="151">
+        <v>1.2037742709835608E-3</v>
+      </c>
+      <c r="L5" s="151">
+        <v>1.2531021763795966E-3</v>
+      </c>
+      <c r="M5" s="151">
+        <v>1.1565446682622101E-3</v>
+      </c>
+      <c r="N5" s="151">
+        <v>1.2471182473910113E-3</v>
+      </c>
+      <c r="O5" s="151">
+        <v>1.18199557409372E-3</v>
+      </c>
+      <c r="P5" s="151">
+        <v>1.2110266278963814E-3</v>
+      </c>
+      <c r="Q5" s="151">
+        <v>1.2718030674068327E-3</v>
+      </c>
+      <c r="R5" s="151">
+        <v>1.2654085434344348E-3</v>
+      </c>
+      <c r="S5" s="151">
+        <v>1.2156632403843525E-3</v>
+      </c>
+      <c r="T5" s="151">
+        <v>1.3538631731146022E-3</v>
+      </c>
+      <c r="U5" s="151">
+        <v>1.1550416542405481E-3</v>
+      </c>
+      <c r="V5" s="151">
+        <v>1.4438533807588597E-3</v>
+      </c>
+      <c r="W5" s="151">
+        <v>1.2227222251986769E-3</v>
+      </c>
+      <c r="X5" s="151">
+        <v>1.3329090107648696E-3</v>
+      </c>
+      <c r="Y5" s="151">
+        <v>1.2364698923044923E-3</v>
+      </c>
+      <c r="Z5" s="151">
+        <v>1.2801283019569724E-3</v>
+      </c>
+      <c r="AA5" s="151">
+        <v>1.2967782787399623E-3</v>
+      </c>
+      <c r="AB5" s="151">
+        <v>1.3191756499531583E-3</v>
+      </c>
+      <c r="AC5" s="151">
+        <v>1.2658024490664866E-3</v>
+      </c>
+      <c r="AD5" s="151">
+        <v>1.2620739674392184E-3</v>
+      </c>
+      <c r="AE5" s="151">
+        <v>1.2874776917127463E-3</v>
+      </c>
+      <c r="AF5" s="151">
+        <v>1.2611935834656164E-3</v>
+      </c>
+      <c r="AG5" s="151">
+        <v>1.3167379157940325E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33">
+      <c r="A6" t="s">
         <v>149</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33">
+      <c r="A7" t="s">
         <v>150</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33">
+      <c r="A8" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B2" s="73">
-        <f>'Road Calculations'!E12</f>
-        <v>8.1118470298065096E-4</v>
-      </c>
-      <c r="C2" s="73">
-        <f>'Road Calculations'!E10</f>
-        <v>4.8269184907871629E-4</v>
-      </c>
-      <c r="D2" s="73">
-        <f>'Road Calculations'!E40</f>
-        <v>4.8630017856737665E-4</v>
-      </c>
-      <c r="E2" s="73">
-        <f>'Road Calculations'!E40</f>
-        <v>4.8630017856737665E-4</v>
-      </c>
-      <c r="F2" s="73">
-        <f>'Road Calculations'!E11</f>
-        <v>6.6041724155835833E-4</v>
-      </c>
-      <c r="G2" s="73">
-        <f>'Road Calculations'!E9</f>
-        <v>4.0520775484588701E-4</v>
-      </c>
-      <c r="H2" s="73">
-        <f>'Road Calculations'!E13</f>
-        <v>6.2031771404402725E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B3" s="73">
-        <f>'Road Calculations'!E19</f>
-        <v>1.1619869328143087E-3</v>
-      </c>
-      <c r="C3" s="73">
-        <f>'Road Calculations'!E18</f>
-        <v>6.7175372810566298E-4</v>
-      </c>
-      <c r="D3" s="73">
-        <f>'Road Calculations'!E15</f>
-        <v>8.9149851051731452E-4</v>
-      </c>
-      <c r="E3" s="73">
-        <f>'Road Calculations'!E16</f>
-        <v>5.8435633048938387E-4</v>
-      </c>
-      <c r="F3" s="73">
-        <v>0</v>
-      </c>
-      <c r="G3" s="73">
-        <f>'Road Calculations'!E17</f>
-        <v>7.2225518249418067E-4</v>
-      </c>
-      <c r="H3" s="73">
-        <f>'Road Calculations'!E20</f>
-        <v>8.8857824274035375E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B4" s="73">
-        <v>0</v>
-      </c>
-      <c r="C4" s="73">
-        <v>0</v>
-      </c>
-      <c r="D4" s="73">
-        <v>0</v>
-      </c>
-      <c r="E4" s="73">
-        <f>'Aviation Calculations'!E5</f>
-        <v>2.4082446227065575E-4</v>
-      </c>
-      <c r="F4" s="73">
-        <v>0</v>
-      </c>
-      <c r="G4" s="73">
-        <v>0</v>
-      </c>
-      <c r="H4" s="73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B5" s="73">
-        <f>'Rail Calculations'!E6</f>
-        <v>1.806355227166114E-3</v>
-      </c>
-      <c r="C5" s="73">
-        <v>0</v>
-      </c>
-      <c r="D5" s="73">
-        <v>0</v>
-      </c>
-      <c r="E5" s="73">
-        <f>'Rail Calculations'!E5</f>
-        <v>9.3028717889103905E-4</v>
-      </c>
-      <c r="F5" s="73">
-        <v>0</v>
-      </c>
-      <c r="G5" s="73">
-        <v>0</v>
-      </c>
-      <c r="H5" s="73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>156</v>
-      </c>
-      <c r="B6" s="73">
-        <v>0</v>
-      </c>
-      <c r="C6" s="73">
-        <v>0</v>
-      </c>
-      <c r="D6" s="73">
-        <v>0</v>
-      </c>
-      <c r="E6" s="73">
-        <v>0</v>
-      </c>
-      <c r="F6" s="73">
-        <v>0</v>
-      </c>
-      <c r="G6" s="73">
-        <v>0</v>
-      </c>
-      <c r="H6" s="73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B7" s="73">
-        <v>0</v>
-      </c>
-      <c r="C7" s="73">
-        <v>0</v>
-      </c>
-      <c r="D7" s="73">
-        <f>'Road Calculations'!E5</f>
-        <v>6.1075124646533467E-4</v>
-      </c>
-      <c r="E7" s="73">
-        <v>0</v>
-      </c>
-      <c r="F7" s="73">
-        <v>0</v>
-      </c>
-      <c r="G7" s="73">
-        <v>0</v>
-      </c>
-      <c r="H7" s="73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="B12" s="73"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="B14" s="73"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="B15" s="73"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="B16" s="73"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="73"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="B24" s="146"/>
-      <c r="C24" s="146"/>
-      <c r="D24" s="146"/>
-      <c r="E24" s="146"/>
-      <c r="F24" s="146"/>
-      <c r="G24" s="146"/>
-      <c r="H24" s="146"/>
-    </row>
-    <row r="25" spans="2:8">
-      <c r="B25" s="146"/>
-      <c r="C25" s="146"/>
-      <c r="D25" s="146"/>
-      <c r="E25" s="146"/>
-      <c r="F25" s="146"/>
-      <c r="G25" s="146"/>
-      <c r="H25" s="146"/>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="B26" s="146"/>
-      <c r="C26" s="146"/>
-      <c r="D26" s="146"/>
-      <c r="E26" s="146"/>
-      <c r="F26" s="146"/>
-      <c r="G26" s="146"/>
-      <c r="H26" s="146"/>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="B27" s="146"/>
-      <c r="C27" s="146"/>
-      <c r="D27" s="146"/>
-      <c r="E27" s="146"/>
-      <c r="F27" s="146"/>
-      <c r="G27" s="146"/>
-      <c r="H27" s="146"/>
-    </row>
-    <row r="28" spans="2:8">
-      <c r="B28" s="146"/>
-      <c r="C28" s="146"/>
-      <c r="D28" s="146"/>
-      <c r="E28" s="146"/>
-      <c r="F28" s="146"/>
-      <c r="G28" s="146"/>
-      <c r="H28" s="146"/>
-    </row>
-    <row r="29" spans="2:8">
-      <c r="B29" s="146"/>
-      <c r="C29" s="146"/>
-      <c r="D29" s="146"/>
-      <c r="E29" s="146"/>
-      <c r="F29" s="146"/>
-      <c r="G29" s="146"/>
-      <c r="H29" s="146"/>
+      <c r="B8" s="151">
+        <v>1.3638406357409493E-3</v>
+      </c>
+      <c r="C8" s="151">
+        <v>1.3240616171500471E-3</v>
+      </c>
+      <c r="D8" s="151">
+        <v>1.3419899748932924E-3</v>
+      </c>
+      <c r="E8" s="151">
+        <v>1.4065371072508825E-3</v>
+      </c>
+      <c r="F8" s="151">
+        <v>1.42613542989141E-3</v>
+      </c>
+      <c r="G8" s="151">
+        <v>1.3847897107248279E-3</v>
+      </c>
+      <c r="H8" s="151">
+        <v>1.3992112295455998E-3</v>
+      </c>
+      <c r="I8" s="151">
+        <v>1.4124765193376325E-3</v>
+      </c>
+      <c r="J8" s="151">
+        <v>1.4259744047000044E-3</v>
+      </c>
+      <c r="K8" s="151">
+        <v>1.4577816859617434E-3</v>
+      </c>
+      <c r="L8" s="151">
+        <v>1.5175182319459336E-3</v>
+      </c>
+      <c r="M8" s="151">
+        <v>1.4005862037670801E-3</v>
+      </c>
+      <c r="N8" s="151">
+        <v>1.5102716390423257E-3</v>
+      </c>
+      <c r="O8" s="151">
+        <v>1.4314074842235877E-3</v>
+      </c>
+      <c r="P8" s="151">
+        <v>1.4665643567185536E-3</v>
+      </c>
+      <c r="Q8" s="151">
+        <v>1.5401651825477241E-3</v>
+      </c>
+      <c r="R8" s="151">
+        <v>1.5324213553517927E-3</v>
+      </c>
+      <c r="S8" s="151">
+        <v>1.4721793369792159E-3</v>
+      </c>
+      <c r="T8" s="151">
+        <v>1.6395407234048394E-3</v>
+      </c>
+      <c r="U8" s="151">
+        <v>1.3987660399977281E-3</v>
+      </c>
+      <c r="V8" s="151">
+        <v>1.7485196904602706E-3</v>
+      </c>
+      <c r="W8" s="151">
+        <v>1.4807278323506912E-3</v>
+      </c>
+      <c r="X8" s="151">
+        <v>1.6141650405592917E-3</v>
+      </c>
+      <c r="Y8" s="151">
+        <v>1.49737638334122E-3</v>
+      </c>
+      <c r="Z8" s="151">
+        <v>1.5502471179662418E-3</v>
+      </c>
+      <c r="AA8" s="151">
+        <v>1.5704103926025231E-3</v>
+      </c>
+      <c r="AB8" s="151">
+        <v>1.5975338146221735E-3</v>
+      </c>
+      <c r="AC8" s="151">
+        <v>1.5328983786860205E-3</v>
+      </c>
+      <c r="AD8" s="151">
+        <v>1.5283831532291454E-3</v>
+      </c>
+      <c r="AE8" s="151">
+        <v>1.5591472963860781E-3</v>
+      </c>
+      <c r="AF8" s="151">
+        <v>1.5273170001601961E-3</v>
+      </c>
+      <c r="AG8" s="151">
+        <v>1.5945816961909385E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33">
+      <c r="AF9" s="73"/>
+      <c r="AG9" s="73"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13290,403 +14543,844 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33F17C70-8F62-42B6-8547-D3F331C48AC3}">
   <sheetPr>
-    <tabColor theme="3"/>
+    <tabColor theme="1"/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:AG8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="8" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="31.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30">
-      <c r="A1" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:33">
+      <c r="A1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1">
+        <v>2019</v>
+      </c>
+      <c r="C1">
+        <v>2020</v>
+      </c>
+      <c r="D1">
+        <v>2021</v>
+      </c>
+      <c r="E1">
+        <v>2022</v>
+      </c>
+      <c r="F1">
+        <v>2023</v>
+      </c>
+      <c r="G1">
+        <v>2024</v>
+      </c>
+      <c r="H1">
+        <v>2025</v>
+      </c>
+      <c r="I1">
+        <v>2026</v>
+      </c>
+      <c r="J1">
+        <v>2027</v>
+      </c>
+      <c r="K1">
+        <v>2028</v>
+      </c>
+      <c r="L1">
+        <v>2029</v>
+      </c>
+      <c r="M1">
+        <v>2030</v>
+      </c>
+      <c r="N1">
+        <v>2031</v>
+      </c>
+      <c r="O1">
+        <v>2032</v>
+      </c>
+      <c r="P1">
+        <v>2033</v>
+      </c>
+      <c r="Q1">
+        <v>2034</v>
+      </c>
+      <c r="R1">
+        <v>2035</v>
+      </c>
+      <c r="S1">
+        <v>2036</v>
+      </c>
+      <c r="T1">
+        <v>2037</v>
+      </c>
+      <c r="U1">
+        <v>2038</v>
+      </c>
+      <c r="V1">
+        <v>2039</v>
+      </c>
+      <c r="W1">
+        <v>2040</v>
+      </c>
+      <c r="X1">
+        <v>2041</v>
+      </c>
+      <c r="Y1">
+        <v>2042</v>
+      </c>
+      <c r="Z1">
+        <v>2043</v>
+      </c>
+      <c r="AA1">
+        <v>2044</v>
+      </c>
+      <c r="AB1">
+        <v>2045</v>
+      </c>
+      <c r="AC1">
+        <v>2046</v>
+      </c>
+      <c r="AD1">
+        <v>2047</v>
+      </c>
+      <c r="AE1">
+        <v>2048</v>
+      </c>
+      <c r="AF1">
+        <v>2049</v>
+      </c>
+      <c r="AG1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33">
+      <c r="A2" t="s">
         <v>145</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33">
+      <c r="A3" t="s">
         <v>146</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33">
+      <c r="A4" t="s">
         <v>147</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33">
+      <c r="A5" t="s">
         <v>148</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="B5" s="151">
+        <v>3.9946997733196358E-4</v>
+      </c>
+      <c r="C5" s="151">
+        <v>4.0439160653034639E-4</v>
+      </c>
+      <c r="D5" s="151">
+        <v>4.0896796422513077E-4</v>
+      </c>
+      <c r="E5" s="151">
+        <v>4.0515963679633868E-4</v>
+      </c>
+      <c r="F5" s="151">
+        <v>4.0886349326038195E-4</v>
+      </c>
+      <c r="G5" s="151">
+        <v>4.0914439850266735E-4</v>
+      </c>
+      <c r="H5" s="151">
+        <v>4.0818083979825547E-4</v>
+      </c>
+      <c r="I5" s="151">
+        <v>4.1456223018867698E-4</v>
+      </c>
+      <c r="J5" s="151">
+        <v>4.1832168247956319E-4</v>
+      </c>
+      <c r="K5" s="151">
+        <v>4.2179309789864639E-4</v>
+      </c>
+      <c r="L5" s="151">
+        <v>4.2587343978849502E-4</v>
+      </c>
+      <c r="M5" s="151">
+        <v>4.2607446291510569E-4</v>
+      </c>
+      <c r="N5" s="151">
+        <v>4.37415365969223E-4</v>
+      </c>
+      <c r="O5" s="151">
+        <v>4.3518350544064486E-4</v>
+      </c>
+      <c r="P5" s="151">
+        <v>4.3660049143439599E-4</v>
+      </c>
+      <c r="Q5" s="151">
+        <v>4.456357475942543E-4</v>
+      </c>
+      <c r="R5" s="151">
+        <v>4.4851722161116827E-4</v>
+      </c>
+      <c r="S5" s="151">
+        <v>4.5212911586721909E-4</v>
+      </c>
+      <c r="T5" s="151">
+        <v>4.5254168437476881E-4</v>
+      </c>
+      <c r="U5" s="151">
+        <v>4.5534100748134953E-4</v>
+      </c>
+      <c r="V5" s="151">
+        <v>4.6120967360668711E-4</v>
+      </c>
+      <c r="W5" s="151">
+        <v>4.6315423847397474E-4</v>
+      </c>
+      <c r="X5" s="151">
+        <v>4.7254788470898725E-4</v>
+      </c>
+      <c r="Y5" s="151">
+        <v>4.8111015905710042E-4</v>
+      </c>
+      <c r="Z5" s="151">
+        <v>4.9070057298606252E-4</v>
+      </c>
+      <c r="AA5" s="151">
+        <v>5.0029069969260824E-4</v>
+      </c>
+      <c r="AB5" s="151">
+        <v>5.0984500274239928E-4</v>
+      </c>
+      <c r="AC5" s="151">
+        <v>5.2369795090316908E-4</v>
+      </c>
+      <c r="AD5" s="151">
+        <v>5.3451813979307045E-4</v>
+      </c>
+      <c r="AE5" s="151">
+        <v>5.5027402350457395E-4</v>
+      </c>
+      <c r="AF5" s="151">
+        <v>5.647703443956263E-4</v>
+      </c>
+      <c r="AG5" s="151">
+        <v>5.7746210067701517E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33">
+      <c r="A6" t="s">
         <v>149</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33">
+      <c r="A7" t="s">
         <v>150</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33">
+      <c r="A8" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B2" s="73">
-        <f>'Road Calculations'!E27</f>
-        <v>8.9661704050521422E-5</v>
-      </c>
-      <c r="C2" s="73">
-        <f>'Road Calculations'!E26</f>
-        <v>4.2850803897423623E-5</v>
-      </c>
-      <c r="D2" s="73">
-        <f>'Road Calculations'!E23</f>
-        <v>4.6546514834821094E-5</v>
-      </c>
-      <c r="E2" s="73">
-        <f>'Road Calculations'!E24</f>
-        <v>6.0954400132705486E-5</v>
-      </c>
-      <c r="F2" s="73">
-        <f>'Road Calculations'!E28</f>
-        <v>1.0385837422457729E-4</v>
-      </c>
-      <c r="G2" s="73">
-        <f>'Road Calculations'!E25</f>
-        <v>3.4677248187766766E-5</v>
-      </c>
-      <c r="H2" s="73">
-        <f>'Road Calculations'!E29</f>
-        <v>6.8564832509222261E-5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B3" s="73">
-        <f>'Road Calculations'!E34</f>
-        <v>9.4864949648538815E-4</v>
-      </c>
-      <c r="C3" s="73">
-        <f>'Road Calculations'!E33</f>
-        <v>3.9152330298862829E-4</v>
-      </c>
-      <c r="D3" s="73">
-        <f>'Road Calculations'!E32</f>
-        <v>4.6042641564768977E-4</v>
-      </c>
-      <c r="E3" s="73">
-        <f>'Road Calculations'!E31</f>
-        <v>4.0634100093132349E-4</v>
-      </c>
-      <c r="F3" s="73">
-        <v>0</v>
-      </c>
-      <c r="G3" s="73">
-        <v>0</v>
-      </c>
-      <c r="H3" s="73">
-        <f>'Road Calculations'!E35</f>
-        <v>7.818784039717835E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B4" s="73">
-        <v>0</v>
-      </c>
-      <c r="C4" s="73">
-        <v>0</v>
-      </c>
-      <c r="D4" s="73">
-        <v>0</v>
-      </c>
-      <c r="E4" s="73">
-        <f>'Aviation Calculations'!E9</f>
-        <v>7.1350079212815194E-5</v>
-      </c>
-      <c r="F4" s="73">
-        <v>0</v>
-      </c>
-      <c r="G4" s="73">
-        <v>0</v>
-      </c>
-      <c r="H4" s="73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B5" s="73">
-        <f>'Rail Calculations'!E9</f>
-        <v>5.0189004572410009E-3</v>
-      </c>
-      <c r="C5" s="73">
-        <v>0</v>
-      </c>
-      <c r="D5" s="73">
-        <v>0</v>
-      </c>
-      <c r="E5" s="73">
-        <f>'Rail Calculations'!E8</f>
-        <v>3.3240466210502032E-3</v>
-      </c>
-      <c r="F5" s="73">
-        <v>0</v>
-      </c>
-      <c r="G5" s="73">
-        <v>0</v>
-      </c>
-      <c r="H5" s="73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>156</v>
-      </c>
-      <c r="B6" s="73">
-        <v>0</v>
-      </c>
-      <c r="C6" s="73">
-        <v>0</v>
-      </c>
-      <c r="D6" s="73">
-        <v>0</v>
-      </c>
-      <c r="E6" s="73">
-        <f>'Ships Calculations'!E8</f>
-        <v>1.1145989755906977E-3</v>
-      </c>
-      <c r="F6" s="73">
-        <v>0</v>
-      </c>
-      <c r="G6" s="73">
-        <v>0</v>
-      </c>
-      <c r="H6" s="73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B7" s="73">
-        <v>0</v>
-      </c>
-      <c r="C7" s="73">
-        <v>0</v>
-      </c>
-      <c r="D7" s="73">
-        <v>0</v>
-      </c>
-      <c r="E7" s="73">
-        <v>0</v>
-      </c>
-      <c r="F7" s="73">
-        <v>0</v>
-      </c>
-      <c r="G7" s="73">
-        <v>0</v>
-      </c>
-      <c r="H7" s="73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="E9" s="73"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="147"/>
-      <c r="B11" s="148"/>
-      <c r="C11" s="148"/>
-      <c r="D11" s="148"/>
-      <c r="E11" s="148"/>
-      <c r="F11" s="148"/>
-      <c r="G11" s="148"/>
-      <c r="H11" s="148"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="149"/>
-      <c r="B12" s="150"/>
-      <c r="C12" s="150"/>
-      <c r="D12" s="150"/>
-      <c r="E12" s="150"/>
-      <c r="F12" s="150"/>
-      <c r="G12" s="150"/>
-      <c r="H12" s="150"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="149"/>
-      <c r="B13" s="150"/>
-      <c r="C13" s="150"/>
-      <c r="D13" s="150"/>
-      <c r="E13" s="150"/>
-      <c r="F13" s="150"/>
-      <c r="G13" s="150"/>
-      <c r="H13" s="150"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="149"/>
-      <c r="B14" s="150"/>
-      <c r="C14" s="150"/>
-      <c r="D14" s="150"/>
-      <c r="E14" s="150"/>
-      <c r="F14" s="150"/>
-      <c r="G14" s="150"/>
-      <c r="H14" s="150"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="149"/>
-      <c r="B15" s="150"/>
-      <c r="C15" s="150"/>
-      <c r="D15" s="150"/>
-      <c r="E15" s="150"/>
-      <c r="F15" s="150"/>
-      <c r="G15" s="150"/>
-      <c r="H15" s="150"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="149"/>
-      <c r="B16" s="150"/>
-      <c r="C16" s="150"/>
-      <c r="D16" s="150"/>
-      <c r="E16" s="150"/>
-      <c r="F16" s="150"/>
-      <c r="G16" s="150"/>
-      <c r="H16" s="150"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="149"/>
-      <c r="B17" s="150"/>
-      <c r="C17" s="150"/>
-      <c r="D17" s="150"/>
-      <c r="E17" s="150"/>
-      <c r="F17" s="150"/>
-      <c r="G17" s="150"/>
-      <c r="H17" s="150"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="146"/>
-      <c r="B20" s="146"/>
-      <c r="C20" s="146"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="146"/>
-      <c r="G20" s="146"/>
-      <c r="H20" s="146"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="146"/>
-      <c r="B21" s="146"/>
-      <c r="C21" s="146"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="146"/>
-      <c r="G21" s="146"/>
-      <c r="H21" s="146"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="146"/>
-      <c r="B22" s="146"/>
-      <c r="C22" s="146"/>
-      <c r="D22" s="146"/>
-      <c r="E22" s="146"/>
-      <c r="F22" s="146"/>
-      <c r="G22" s="146"/>
-      <c r="H22" s="146"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="146"/>
-      <c r="B23" s="146"/>
-      <c r="C23" s="146"/>
-      <c r="D23" s="146"/>
-      <c r="E23" s="146"/>
-      <c r="F23" s="146"/>
-      <c r="G23" s="146"/>
-      <c r="H23" s="146"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="146"/>
-      <c r="B24" s="146"/>
-      <c r="C24" s="146"/>
-      <c r="D24" s="146"/>
-      <c r="E24" s="146"/>
-      <c r="F24" s="146"/>
-      <c r="G24" s="146"/>
-      <c r="H24" s="146"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="146"/>
-      <c r="B25" s="146"/>
-      <c r="C25" s="146"/>
-      <c r="D25" s="146"/>
-      <c r="E25" s="146"/>
-      <c r="F25" s="146"/>
-      <c r="G25" s="146"/>
-      <c r="H25" s="146"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="146"/>
-      <c r="B26" s="146"/>
-      <c r="C26" s="146"/>
-      <c r="D26" s="146"/>
-      <c r="E26" s="146"/>
-      <c r="F26" s="146"/>
-      <c r="G26" s="146"/>
-      <c r="H26" s="146"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="146"/>
-      <c r="B27" s="146"/>
-      <c r="C27" s="146"/>
-      <c r="D27" s="146"/>
-      <c r="E27" s="146"/>
-      <c r="F27" s="146"/>
-      <c r="G27" s="146"/>
-      <c r="H27" s="146"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="146"/>
-      <c r="B28" s="146"/>
-      <c r="C28" s="146"/>
-      <c r="D28" s="146"/>
-      <c r="E28" s="146"/>
-      <c r="F28" s="146"/>
-      <c r="G28" s="146"/>
-      <c r="H28" s="146"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="146"/>
-      <c r="B29" s="146"/>
-      <c r="C29" s="146"/>
-      <c r="D29" s="146"/>
-      <c r="E29" s="146"/>
-      <c r="F29" s="146"/>
-      <c r="G29" s="146"/>
-      <c r="H29" s="146"/>
+      <c r="B8" s="151">
+        <v>5.8351202885819839E-4</v>
+      </c>
+      <c r="C8" s="151">
+        <v>5.9070112942094131E-4</v>
+      </c>
+      <c r="D8" s="151">
+        <v>5.9738588651107264E-4</v>
+      </c>
+      <c r="E8" s="151">
+        <v>5.9182300321412818E-4</v>
+      </c>
+      <c r="F8" s="151">
+        <v>5.9723328414279335E-4</v>
+      </c>
+      <c r="G8" s="151">
+        <v>5.9764360681319173E-4</v>
+      </c>
+      <c r="H8" s="151">
+        <v>5.9623612157915602E-4</v>
+      </c>
+      <c r="I8" s="151">
+        <v>6.0555751809190743E-4</v>
+      </c>
+      <c r="J8" s="151">
+        <v>6.1104900871230931E-4</v>
+      </c>
+      <c r="K8" s="151">
+        <v>6.1611975937980073E-4</v>
+      </c>
+      <c r="L8" s="151">
+        <v>6.2207997844427904E-4</v>
+      </c>
+      <c r="M8" s="151">
+        <v>6.2237361606190284E-4</v>
+      </c>
+      <c r="N8" s="151">
+        <v>6.3893945010627933E-4</v>
+      </c>
+      <c r="O8" s="151">
+        <v>6.3567933660824561E-4</v>
+      </c>
+      <c r="P8" s="151">
+        <v>6.3774915015868991E-4</v>
+      </c>
+      <c r="Q8" s="151">
+        <v>6.5094708980938663E-4</v>
+      </c>
+      <c r="R8" s="151">
+        <v>6.5515610386581574E-4</v>
+      </c>
+      <c r="S8" s="151">
+        <v>6.6043205416237106E-4</v>
+      </c>
+      <c r="T8" s="151">
+        <v>6.6103469941869593E-4</v>
+      </c>
+      <c r="U8" s="151">
+        <v>6.6512371435859256E-4</v>
+      </c>
+      <c r="V8" s="151">
+        <v>6.7369616653724872E-4</v>
+      </c>
+      <c r="W8" s="151">
+        <v>6.7653662278013285E-4</v>
+      </c>
+      <c r="X8" s="151">
+        <v>6.9025806840560303E-4</v>
+      </c>
+      <c r="Y8" s="151">
+        <v>7.0276511614390184E-4</v>
+      </c>
+      <c r="Z8" s="151">
+        <v>7.1677398341010983E-4</v>
+      </c>
+      <c r="AA8" s="151">
+        <v>7.3078243112605263E-4</v>
+      </c>
+      <c r="AB8" s="151">
+        <v>7.4473855066761394E-4</v>
+      </c>
+      <c r="AC8" s="151">
+        <v>7.6497376819496484E-4</v>
+      </c>
+      <c r="AD8" s="151">
+        <v>7.807789869349167E-4</v>
+      </c>
+      <c r="AE8" s="151">
+        <v>8.0379385211291519E-4</v>
+      </c>
+      <c r="AF8" s="151">
+        <v>8.2496885422599791E-4</v>
+      </c>
+      <c r="AG8" s="151">
+        <v>8.435079006569459E-4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="14" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="4a12692b057bc30d68596ac87c75a308">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4dd464ebbb7361a2027b4bc4be8d527a" ns2:_="" ns3:_="">
     <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
@@ -13915,7 +15609,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
@@ -13926,16 +15620,15 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF912DF3-EA4C-4211-B7E9-EA25E2A94769}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE28452B-5587-40CC-A9EE-4AAF8A3A964E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13954,7 +15647,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D632F66-03C4-44FF-9808-B31E7AA18D4B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -13963,12 +15656,4 @@
     <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF912DF3-EA4C-4211-B7E9-EA25E2A94769}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>